--- a/dividend_tracker/DividendTrackerApp/outputs/Dividends_2025.xlsx
+++ b/dividend_tracker/DividendTrackerApp/outputs/Dividends_2025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="659" firstSheet="1" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="659" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Portfolio Values 2025" sheetId="1" state="visible" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <numFmt numFmtId="167" formatCode="\$#,##0.00"/>
     <numFmt numFmtId="168" formatCode="mm\-dd"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -124,6 +124,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
     </font>
@@ -131,7 +142,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill/>
     </fill>
@@ -188,12 +199,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD3D3D3"/>
-        <bgColor rgb="FFD3D3D3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
       </patternFill>
@@ -218,8 +223,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF4472C4"/>
+        <bgColor rgb="FF4472C4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -358,7 +375,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -392,7 +409,6 @@
     <xf numFmtId="167" fontId="10" fillId="9" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="167" fontId="10" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -433,21 +449,25 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="168" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -463,20 +483,164 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -931,26 +1095,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH10"/>
+  <dimension ref="A1:AJ10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD22" sqref="AD22"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AJ10" sqref="AJ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" style="66" min="1" max="1"/>
-    <col width="15.7109375" customWidth="1" style="66" min="2" max="34"/>
+    <col width="25" customWidth="1" style="67" min="1" max="1"/>
+    <col width="15.7109375" customWidth="1" style="67" min="2" max="36"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" s="66">
-      <c r="A1" s="65" t="inlineStr">
+    <row r="1" ht="18" customHeight="1" s="67">
+      <c r="A1" s="66" t="inlineStr">
         <is>
           <t>💰 Portfolio Values &amp; Growth Tracking (Starting 12/29/24)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="66">
+    <row r="3" ht="15.75" customHeight="1" s="67">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>Account</t>
@@ -1079,29 +1243,35 @@
           <t>06/15/2025</t>
         </is>
       </c>
-      <c r="AA3" s="68" t="n">
+      <c r="AA3" s="69" t="n">
         <v>45826</v>
       </c>
-      <c r="AB3" s="68" t="n">
+      <c r="AB3" s="69" t="n">
         <v>45830</v>
       </c>
-      <c r="AC3" s="68" t="n">
+      <c r="AC3" s="69" t="n">
         <v>45837</v>
       </c>
-      <c r="AD3" s="68" t="n">
+      <c r="AD3" s="69" t="n">
         <v>45844</v>
       </c>
-      <c r="AE3" s="68" t="n">
+      <c r="AE3" s="69" t="n">
         <v>45851</v>
       </c>
-      <c r="AF3" s="68" t="n">
+      <c r="AF3" s="69" t="n">
         <v>45858</v>
       </c>
-      <c r="AG3" s="68" t="n">
+      <c r="AG3" s="69" t="n">
         <v>45865</v>
       </c>
-      <c r="AH3" s="68" t="n">
+      <c r="AH3" s="69" t="n">
         <v>45872</v>
+      </c>
+      <c r="AI3" s="69" t="n">
+        <v>45879</v>
+      </c>
+      <c r="AJ3" s="69" t="n">
+        <v>45886</v>
       </c>
     </row>
     <row r="4">
@@ -1209,6 +1379,12 @@
       <c r="AH4" s="19" t="n">
         <v>275522</v>
       </c>
+      <c r="AI4" s="19" t="n">
+        <v>274961</v>
+      </c>
+      <c r="AJ4" s="19" t="n">
+        <v>277989</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="inlineStr">
@@ -1314,6 +1490,12 @@
       </c>
       <c r="AH5" s="19" t="n">
         <v>61135</v>
+      </c>
+      <c r="AI5" s="19" t="n">
+        <v>62254</v>
+      </c>
+      <c r="AJ5" s="19" t="n">
+        <v>62280</v>
       </c>
     </row>
     <row r="6">
@@ -1369,6 +1551,12 @@
       <c r="AH6" s="11" t="n">
         <v>49382</v>
       </c>
+      <c r="AI6" s="11" t="n">
+        <v>48336</v>
+      </c>
+      <c r="AJ6" s="11" t="n">
+        <v>49521.53</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="inlineStr">
@@ -1423,6 +1611,12 @@
       <c r="AH7" s="19" t="n">
         <v>2572</v>
       </c>
+      <c r="AI7" s="19" t="n">
+        <v>2599</v>
+      </c>
+      <c r="AJ7" s="19" t="n">
+        <v>2624.68</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="inlineStr">
@@ -1529,9 +1723,15 @@
       <c r="AH8" s="19" t="n">
         <v>119606</v>
       </c>
+      <c r="AI8" s="19" t="n">
+        <v>123063</v>
+      </c>
+      <c r="AJ8" s="19" t="n">
+        <v>124189</v>
+      </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="66"/>
-    <row r="10" ht="15.75" customHeight="1" s="66">
+    <row r="9" ht="15.75" customHeight="1" s="67"/>
+    <row r="10" ht="15.75" customHeight="1" s="67">
       <c r="A10" s="13" t="inlineStr">
         <is>
           <t>TOTAL PORTFOLIO</t>
@@ -1635,6 +1835,12 @@
       </c>
       <c r="AH10" s="20" t="n">
         <v>508216</v>
+      </c>
+      <c r="AI10" s="20" t="n">
+        <v>511213</v>
+      </c>
+      <c r="AJ10" s="20" t="n">
+        <v>516604.21</v>
       </c>
     </row>
   </sheetData>
@@ -1660,18 +1866,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" style="66" min="1" max="1"/>
-    <col width="12" customWidth="1" style="66" min="2" max="33"/>
+    <col width="25" customWidth="1" style="67" min="1" max="1"/>
+    <col width="12" customWidth="1" style="67" min="2" max="33"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" s="66">
-      <c r="A1" s="67" t="inlineStr">
+    <row r="1" ht="18" customHeight="1" s="67">
+      <c r="A1" s="68" t="inlineStr">
         <is>
           <t>📊 Dividend Income Tracking &amp; Progression (Starting 12/29/24)</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="66">
+    <row r="3" ht="15.75" customHeight="1" s="67">
       <c r="A3" s="7" t="inlineStr">
         <is>
           <t>Account</t>
@@ -2147,38 +2353,38 @@
     <row r="8">
       <c r="A8" s="8" t="n"/>
       <c r="B8" s="12" t="n"/>
-      <c r="C8" s="69" t="n"/>
-      <c r="D8" s="69" t="n"/>
-      <c r="E8" s="69" t="n"/>
-      <c r="F8" s="69" t="n"/>
-      <c r="G8" s="69" t="n"/>
-      <c r="H8" s="69" t="n"/>
-      <c r="I8" s="69" t="n"/>
-      <c r="J8" s="69" t="n"/>
-      <c r="K8" s="69" t="n"/>
-      <c r="L8" s="69" t="n"/>
-      <c r="M8" s="69" t="n"/>
-      <c r="N8" s="69" t="n"/>
-      <c r="O8" s="69" t="n"/>
-      <c r="P8" s="69" t="n"/>
-      <c r="Q8" s="69" t="n"/>
-      <c r="R8" s="69" t="n"/>
-      <c r="S8" s="69" t="n"/>
-      <c r="T8" s="69" t="n"/>
-      <c r="U8" s="69" t="n"/>
-      <c r="V8" s="69" t="n"/>
-      <c r="W8" s="69" t="n"/>
-      <c r="X8" s="69" t="n"/>
-      <c r="Y8" s="69" t="n"/>
-      <c r="Z8" s="69" t="n"/>
-      <c r="AA8" s="69" t="n"/>
-      <c r="AB8" s="69" t="n"/>
-      <c r="AC8" s="69" t="n"/>
-      <c r="AD8" s="69" t="n"/>
-      <c r="AE8" s="69" t="n"/>
-      <c r="AF8" s="69" t="n"/>
-      <c r="AG8" s="69" t="n"/>
-      <c r="AH8" s="69" t="n"/>
+      <c r="C8" s="70" t="n"/>
+      <c r="D8" s="70" t="n"/>
+      <c r="E8" s="70" t="n"/>
+      <c r="F8" s="70" t="n"/>
+      <c r="G8" s="70" t="n"/>
+      <c r="H8" s="70" t="n"/>
+      <c r="I8" s="70" t="n"/>
+      <c r="J8" s="70" t="n"/>
+      <c r="K8" s="70" t="n"/>
+      <c r="L8" s="70" t="n"/>
+      <c r="M8" s="70" t="n"/>
+      <c r="N8" s="70" t="n"/>
+      <c r="O8" s="70" t="n"/>
+      <c r="P8" s="70" t="n"/>
+      <c r="Q8" s="70" t="n"/>
+      <c r="R8" s="70" t="n"/>
+      <c r="S8" s="70" t="n"/>
+      <c r="T8" s="70" t="n"/>
+      <c r="U8" s="70" t="n"/>
+      <c r="V8" s="70" t="n"/>
+      <c r="W8" s="70" t="n"/>
+      <c r="X8" s="70" t="n"/>
+      <c r="Y8" s="70" t="n"/>
+      <c r="Z8" s="70" t="n"/>
+      <c r="AA8" s="70" t="n"/>
+      <c r="AB8" s="70" t="n"/>
+      <c r="AC8" s="70" t="n"/>
+      <c r="AD8" s="70" t="n"/>
+      <c r="AE8" s="70" t="n"/>
+      <c r="AF8" s="70" t="n"/>
+      <c r="AG8" s="70" t="n"/>
+      <c r="AH8" s="70" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="22" t="inlineStr">
@@ -2186,135 +2392,135 @@
           <t>Monthly Total</t>
         </is>
       </c>
-      <c r="B9" s="70">
+      <c r="B9" s="71">
         <f>SUM(B4:B7)/12</f>
         <v/>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="72">
         <f>SUM(C4:C7)/12</f>
         <v/>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="73">
         <f>SUM(D4:D7)/12</f>
         <v/>
       </c>
-      <c r="E9" s="73">
+      <c r="E9" s="74">
         <f>SUM(E4:E7)/12</f>
         <v/>
       </c>
-      <c r="F9" s="71">
+      <c r="F9" s="72">
         <f>SUM(F4:F7)/12</f>
         <v/>
       </c>
-      <c r="G9" s="72">
+      <c r="G9" s="73">
         <f>SUM(G4:G7)/12</f>
         <v/>
       </c>
-      <c r="H9" s="73">
+      <c r="H9" s="74">
         <f>SUM(H4:H7)/12</f>
         <v/>
       </c>
-      <c r="I9" s="71">
+      <c r="I9" s="72">
         <f>SUM(I4:I7)/12</f>
         <v/>
       </c>
-      <c r="J9" s="72">
+      <c r="J9" s="73">
         <f>SUM(J4:J7)/12</f>
         <v/>
       </c>
-      <c r="K9" s="73">
+      <c r="K9" s="74">
         <f>SUM(K4:K7)/12</f>
         <v/>
       </c>
-      <c r="L9" s="71">
+      <c r="L9" s="72">
         <f>SUM(L4:L7)/12</f>
         <v/>
       </c>
-      <c r="M9" s="72">
+      <c r="M9" s="73">
         <f>SUM(M4:M7)/12</f>
         <v/>
       </c>
-      <c r="N9" s="73">
+      <c r="N9" s="74">
         <f>SUM(N4:N7)/12</f>
         <v/>
       </c>
-      <c r="O9" s="71">
+      <c r="O9" s="72">
         <f>SUM(O4:O7)/12</f>
         <v/>
       </c>
-      <c r="P9" s="72">
+      <c r="P9" s="73">
         <f>SUM(P4:P7)/12</f>
         <v/>
       </c>
-      <c r="Q9" s="73">
+      <c r="Q9" s="74">
         <f>SUM(Q4:Q7)/12</f>
         <v/>
       </c>
-      <c r="R9" s="71">
+      <c r="R9" s="72">
         <f>SUM(R4:R7)/12</f>
         <v/>
       </c>
-      <c r="S9" s="72">
+      <c r="S9" s="73">
         <f>SUM(S4:S7)/12</f>
         <v/>
       </c>
-      <c r="T9" s="73">
+      <c r="T9" s="74">
         <f>SUM(T4:T7)/12</f>
         <v/>
       </c>
-      <c r="U9" s="71">
+      <c r="U9" s="72">
         <f>SUM(U4:U7)/12</f>
         <v/>
       </c>
-      <c r="V9" s="72">
+      <c r="V9" s="73">
         <f>SUM(V4:V7)/12</f>
         <v/>
       </c>
-      <c r="W9" s="73">
+      <c r="W9" s="74">
         <f>SUM(W4:W7)/12</f>
         <v/>
       </c>
-      <c r="X9" s="71">
+      <c r="X9" s="72">
         <f>SUM(X4:X7)/12</f>
         <v/>
       </c>
-      <c r="Y9" s="72">
+      <c r="Y9" s="73">
         <f>SUM(Y4:Y7)/12</f>
         <v/>
       </c>
-      <c r="Z9" s="73">
+      <c r="Z9" s="74">
         <f>SUM(Z4:Z7)/12</f>
         <v/>
       </c>
-      <c r="AA9" s="71">
+      <c r="AA9" s="72">
         <f>SUM(AA4:AA7)/12</f>
         <v/>
       </c>
-      <c r="AB9" s="72">
+      <c r="AB9" s="73">
         <f>SUM(AB4:AB7)/12</f>
         <v/>
       </c>
-      <c r="AC9" s="73">
+      <c r="AC9" s="74">
         <f>SUM(AC4:AC7)/12</f>
         <v/>
       </c>
-      <c r="AD9" s="71">
+      <c r="AD9" s="72">
         <f>SUM(AD4:AD7)/12</f>
         <v/>
       </c>
-      <c r="AE9" s="72">
+      <c r="AE9" s="73">
         <f>SUM(AE4:AE7)/12</f>
         <v/>
       </c>
-      <c r="AF9" s="73">
+      <c r="AF9" s="74">
         <f>SUM(AF4:AF7)/12</f>
         <v/>
       </c>
-      <c r="AG9" s="71">
+      <c r="AG9" s="72">
         <f>SUM(AG4:AG7)/12</f>
         <v/>
       </c>
-      <c r="AH9" s="72">
+      <c r="AH9" s="73">
         <f>SUM(AH4:AH7)/12</f>
         <v/>
       </c>
@@ -2341,10 +2547,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.7109375" customWidth="1" style="66" min="1" max="34"/>
+    <col width="15.7109375" customWidth="1" style="67" min="1" max="34"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="66">
+    <row r="1" ht="15.75" customHeight="1" s="67">
       <c r="A1" t="inlineStr">
         <is>
           <t>Account</t>
@@ -2814,7 +3020,7 @@
       <c r="AD5" s="6" t="n">
         <v>50145</v>
       </c>
-      <c r="AE5" s="74" t="n">
+      <c r="AE5" s="75" t="n">
         <v>50124</v>
       </c>
       <c r="AF5" s="6" t="n">
@@ -2874,10 +3080,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15.7109375" customWidth="1" style="66" min="1" max="33"/>
+    <col width="15.7109375" customWidth="1" style="67" min="1" max="33"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="66">
+    <row r="1" ht="15.75" customHeight="1" s="67">
       <c r="A1" t="inlineStr">
         <is>
           <t>Account</t>
@@ -3317,7 +3523,7 @@
         <v>8323</v>
       </c>
     </row>
-    <row r="6" ht="18.75" customHeight="1" s="66">
+    <row r="6" ht="18.75" customHeight="1" s="67">
       <c r="A6" t="inlineStr">
         <is>
           <t>Monthly totals</t>
@@ -3454,18 +3660,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C6:Y6 AA6:AG6">
-    <cfRule type="expression" priority="1" dxfId="7">
+    <cfRule type="expression" priority="1" dxfId="27">
       <formula>$C6 &gt;= D6</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="6">
+    <cfRule type="expression" priority="2" dxfId="26">
       <formula>$C6 &lt; D6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z6">
-    <cfRule type="expression" priority="7" dxfId="7">
+    <cfRule type="expression" priority="7" dxfId="27">
       <formula>$C6 &gt;= #REF!</formula>
     </cfRule>
-    <cfRule type="expression" priority="8" dxfId="6">
+    <cfRule type="expression" priority="8" dxfId="26">
       <formula>$C6 &lt; #REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3479,2967 +3685,3046 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AL25"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1:AK1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10.7109375" bestFit="1" customWidth="1" style="66" min="33" max="33"/>
-    <col width="11" customWidth="1" style="66" min="34" max="34"/>
-    <col width="11.140625" customWidth="1" style="66" min="35" max="36"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" style="48" min="4" max="4"/>
+    <col width="11.7109375" customWidth="1" style="1" min="7" max="7"/>
+    <col width="14.42578125" customWidth="1" style="67" min="8" max="8"/>
+    <col width="12" customWidth="1" style="67" min="9" max="9"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" style="67" min="34" max="34"/>
+    <col width="11" customWidth="1" style="67" min="35" max="35"/>
+    <col width="11.140625" customWidth="1" style="67" min="36" max="37"/>
   </cols>
   <sheetData>
-    <row r="1" ht="63" customHeight="1" s="66">
-      <c r="A1" s="30" t="inlineStr">
+    <row r="1" ht="63" customHeight="1" s="67">
+      <c r="A1" s="29" t="inlineStr">
         <is>
           <t>Ticker</t>
         </is>
       </c>
-      <c r="B1" s="31" t="inlineStr">
+      <c r="B1" s="30" t="inlineStr">
         <is>
           <t>Qty #</t>
         </is>
       </c>
-      <c r="C1" s="30" t="inlineStr">
+      <c r="C1" s="29" t="inlineStr">
         <is>
           <t>Price Paid $</t>
         </is>
       </c>
-      <c r="D1" s="32" t="inlineStr">
+      <c r="D1" s="31" t="inlineStr">
         <is>
           <t>Last Price $</t>
         </is>
       </c>
-      <c r="E1" s="30" t="inlineStr">
-        <is>
-          <t>Day's Gain $</t>
-        </is>
-      </c>
-      <c r="F1" s="30" t="inlineStr">
+      <c r="E1" s="29" t="inlineStr">
         <is>
           <t>Change $</t>
         </is>
       </c>
-      <c r="G1" s="30" t="inlineStr">
+      <c r="F1" s="29" t="inlineStr">
         <is>
           <t>Change %</t>
         </is>
       </c>
+      <c r="G1" s="32" t="inlineStr">
+        <is>
+          <t>Current Value $</t>
+        </is>
+      </c>
       <c r="H1" s="33" t="inlineStr">
         <is>
-          <t>Current Value $</t>
-        </is>
-      </c>
-      <c r="I1" s="34" t="inlineStr">
-        <is>
           <t>Original Value $</t>
         </is>
       </c>
-      <c r="J1" s="30" t="inlineStr">
+      <c r="I1" s="29" t="inlineStr">
         <is>
           <t>Total Gain %</t>
         </is>
       </c>
+      <c r="J1" s="34" t="inlineStr">
+        <is>
+          <t>Pay Date</t>
+        </is>
+      </c>
       <c r="K1" s="35" t="inlineStr">
         <is>
-          <t>Pay Date</t>
+          <t>Payment cycle</t>
         </is>
       </c>
       <c r="L1" s="36" t="inlineStr">
         <is>
-          <t>Payment cycle</t>
+          <t>Rate per share</t>
         </is>
       </c>
       <c r="M1" s="37" t="inlineStr">
         <is>
-          <t>Rate per share</t>
-        </is>
-      </c>
-      <c r="N1" s="38" t="inlineStr">
-        <is>
           <t>Original Payment amount</t>
         </is>
       </c>
-      <c r="O1" s="36" t="inlineStr">
+      <c r="N1" s="35" t="inlineStr">
         <is>
           <t>New Payment amount</t>
         </is>
       </c>
-      <c r="P1" s="39" t="inlineStr">
+      <c r="O1" s="38" t="inlineStr">
         <is>
           <t>Beginning Dividend Yield</t>
         </is>
       </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>08-16-2025</t>
+        </is>
+      </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>08-09-2025</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
           <t>08-02-2025</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>07-28-2025</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>07-19-2025</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>07-12-2025</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>07-04-2025</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>06-29-2025</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>06-21-2025</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>06-15-2025</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>06-08-2025</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>06-03-2025</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>05-25-2025</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>05-10-2025</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>05-03-2025</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>04-26-2025</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>04-19-2025</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>04-12-2025</t>
         </is>
       </c>
-      <c r="AG1" s="75" t="n">
+      <c r="AH1" s="76" t="n">
         <v>45753</v>
       </c>
-      <c r="AH1" s="75" t="n">
+      <c r="AI1" s="76" t="n">
         <v>45746</v>
       </c>
-      <c r="AI1" s="75" t="n">
+      <c r="AJ1" s="76" t="n">
         <v>45740</v>
       </c>
-      <c r="AJ1" s="75" t="n">
+      <c r="AK1" s="76" t="n">
         <v>45732</v>
       </c>
-      <c r="AK1" s="40" t="inlineStr">
+      <c r="AL1" s="39" t="inlineStr">
         <is>
           <t>Account</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" s="66">
-      <c r="A2" s="41" t="inlineStr">
+    <row r="2" ht="15.75" customHeight="1" s="67">
+      <c r="A2" s="40" t="inlineStr">
         <is>
           <t>ABR</t>
         </is>
       </c>
-      <c r="B2" s="42" t="n">
+      <c r="B2" s="41" t="n">
         <v>1050</v>
       </c>
-      <c r="C2" s="43" t="n">
+      <c r="C2" s="42" t="n">
         <v>13.8776</v>
       </c>
-      <c r="D2" s="43" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="E2" s="44" t="n">
-        <v>-108.24</v>
+      <c r="D2" s="42" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E2" s="43" t="n">
+        <v>-0.12</v>
       </c>
       <c r="F2" s="44" t="n">
-        <v>-0.12</v>
-      </c>
-      <c r="G2" s="45" t="n">
         <v>-0.008699999999999999</v>
       </c>
+      <c r="G2" s="45">
+        <f>B2*D2</f>
+        <v/>
+      </c>
       <c r="H2" s="46">
-        <f>B2*D2</f>
-        <v/>
-      </c>
-      <c r="I2" s="47">
         <f>B2*C2</f>
         <v/>
       </c>
-      <c r="J2" s="46">
-        <f>H2-I2</f>
-        <v/>
-      </c>
-      <c r="K2" s="76" t="n">
+      <c r="I2" s="45">
+        <f>G2-H2</f>
+        <v/>
+      </c>
+      <c r="J2" s="77" t="n">
         <v>45898.70179398148</v>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>Quarterly</t>
         </is>
       </c>
+      <c r="L2" s="1">
+        <f>((D2*R2)/100)/12</f>
+        <v/>
+      </c>
       <c r="M2" s="1">
-        <f>((D2*Q2)/100)/12</f>
+        <f>(($B2*$D2)*(O2/100)/12)</f>
         <v/>
       </c>
       <c r="N2" s="1">
-        <f>(($B2*$D2)*(P2/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O2" s="1">
-        <f>(($B2*$D2)*(Q2/100)/12)</f>
-        <v/>
+        <f>(($B2*$D2)*(R2/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O2" s="48" t="n">
+        <v>14.2</v>
       </c>
       <c r="P2" s="49" t="n">
+        <v>10.33</v>
+      </c>
+      <c r="Q2" s="49" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="R2" s="49" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="S2" s="49" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="T2" s="49" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="U2" s="49" t="n">
+        <v>10.67</v>
+      </c>
+      <c r="V2" s="49" t="n">
+        <v>10.85</v>
+      </c>
+      <c r="W2" s="49" t="n">
+        <v>11.17</v>
+      </c>
+      <c r="X2" s="49" t="n">
+        <v>11.73</v>
+      </c>
+      <c r="Y2" s="49" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="Z2" s="49" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="AA2" s="49" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="AB2" s="49" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="AC2" s="49" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="AD2" s="49" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="AE2" s="50" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="AF2" s="50" t="n">
+        <v>16.03</v>
+      </c>
+      <c r="AG2" s="50" t="n">
+        <v>16.48</v>
+      </c>
+      <c r="AH2" s="50" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="AI2" s="50" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="AJ2" s="49" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="AK2" s="49" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="AL2" s="51" t="inlineStr">
+        <is>
+          <t>Etrade IRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1" s="67">
+      <c r="A3" s="40" t="inlineStr">
+        <is>
+          <t>ACP</t>
+        </is>
+      </c>
+      <c r="B3" s="41" t="n">
+        <v>1625</v>
+      </c>
+      <c r="C3" s="42" t="n">
+        <v>6.6412</v>
+      </c>
+      <c r="D3" s="42" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="E3" s="43" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F3" s="44" t="n">
+        <v>-0.0033</v>
+      </c>
+      <c r="G3" s="45">
+        <f>B3*D3</f>
+        <v/>
+      </c>
+      <c r="H3" s="46">
+        <f>B3*C3</f>
+        <v/>
+      </c>
+      <c r="I3" s="45">
+        <f>G3-H3</f>
+        <v/>
+      </c>
+      <c r="J3" s="77" t="n">
+        <v>45869.70179398148</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="L3" s="1">
+        <f>((D3*R3)/100)/12</f>
+        <v/>
+      </c>
+      <c r="M3" s="1">
+        <f>((B3*D3)*(O3/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N3" s="1">
+        <f>(($B3*$D3)*(R3/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O3" s="48" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="P3" s="62" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="Q3" s="62" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="R3" s="50" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="S3" s="50" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="T3" s="50" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="U3" s="50" t="n">
+        <v>15.58</v>
+      </c>
+      <c r="V3" s="50" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="W3" s="50" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="X3" s="50" t="n">
+        <v>15.82</v>
+      </c>
+      <c r="Y3" s="50" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="Z3" s="50" t="n">
+        <v>15.92</v>
+      </c>
+      <c r="AA3" s="50" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="AB3" s="50" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="AC3" s="50" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="AD3" s="50" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="AE3" s="50" t="n">
+        <v>16.79</v>
+      </c>
+      <c r="AF3" s="50" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="AG3" s="50" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="AH3" s="50" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="AI3" s="50" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="AJ3" s="49" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK3" s="50" t="n">
+        <v>15.68</v>
+      </c>
+      <c r="AL3" s="51" t="inlineStr">
+        <is>
+          <t>Etrade IRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="67">
+      <c r="A4" s="40" t="inlineStr">
+        <is>
+          <t>AGNC</t>
+        </is>
+      </c>
+      <c r="B4" s="41" t="n">
+        <v>736</v>
+      </c>
+      <c r="C4" s="42" t="n">
+        <v>10.37</v>
+      </c>
+      <c r="D4" s="42" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="E4" s="43" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="F4" s="44" t="n">
+        <v>-0.0069</v>
+      </c>
+      <c r="G4" s="45">
+        <f>B4*D4</f>
+        <v/>
+      </c>
+      <c r="H4" s="46">
+        <f>B4*C4</f>
+        <v/>
+      </c>
+      <c r="I4" s="45">
+        <f>G4-H4</f>
+        <v/>
+      </c>
+      <c r="J4" s="77" t="n">
+        <v>45880.70179398148</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="L4" s="1">
+        <f>((D4*R4)/100)/12</f>
+        <v/>
+      </c>
+      <c r="M4" s="1">
+        <f>((B4*D4)*(O4/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N4" s="1">
+        <f>(($B4*$D4)*(R4/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O4" s="48" t="n">
+        <v>13.81</v>
+      </c>
+      <c r="P4" s="62" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="Q4" s="62" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="R4" s="50" t="n">
+        <v>15.27</v>
+      </c>
+      <c r="S4" s="50" t="n">
+        <v>14.83</v>
+      </c>
+      <c r="T4" s="50" t="n">
+        <v>15.52</v>
+      </c>
+      <c r="U4" s="50" t="n">
+        <v>15.24</v>
+      </c>
+      <c r="V4" s="50" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="W4" s="50" t="n">
+        <v>15.45</v>
+      </c>
+      <c r="X4" s="50" t="n">
+        <v>15.55</v>
+      </c>
+      <c r="Y4" s="50" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="Z4" s="50" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="AA4" s="50" t="n">
+        <v>16.31</v>
+      </c>
+      <c r="AB4" s="50" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="AC4" s="50" t="n">
+        <v>16.22</v>
+      </c>
+      <c r="AD4" s="50" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="AE4" s="50" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="AF4" s="50" t="n">
+        <v>17.35</v>
+      </c>
+      <c r="AG4" s="50" t="n">
+        <v>17.73</v>
+      </c>
+      <c r="AH4" s="50" t="n">
+        <v>15.42</v>
+      </c>
+      <c r="AI4" s="50" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="AJ4" s="50" t="n">
+        <v>14.17</v>
+      </c>
+      <c r="AK4" s="50" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="AL4" s="51" t="inlineStr">
+        <is>
+          <t>Etrade IRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="67">
+      <c r="A5" s="40" t="inlineStr">
+        <is>
+          <t>BITO</t>
+        </is>
+      </c>
+      <c r="B5" s="41" t="n">
+        <v>440</v>
+      </c>
+      <c r="C5" s="42" t="n">
+        <v>28.0018</v>
+      </c>
+      <c r="D5" s="42" t="n">
+        <v>21.17</v>
+      </c>
+      <c r="E5" s="43" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="F5" s="44" t="n">
+        <v>-0.012</v>
+      </c>
+      <c r="G5" s="45">
+        <f>B5*D5</f>
+        <v/>
+      </c>
+      <c r="H5" s="46">
+        <f>B5*C5</f>
+        <v/>
+      </c>
+      <c r="I5" s="45">
+        <f>G5-H5</f>
+        <v/>
+      </c>
+      <c r="J5" s="77" t="n">
+        <v>45876.70179398148</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="L5" s="1">
+        <f>((D5*R5)/100)/12</f>
+        <v/>
+      </c>
+      <c r="M5" s="1">
+        <f>((B5*D5)*(O5/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N5" s="1">
+        <f>(($B5*$D5)*(R5/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O5" s="48" t="n">
+        <v>57.07</v>
+      </c>
+      <c r="P5" s="49" t="n">
+        <v>51.21</v>
+      </c>
+      <c r="Q5" s="49" t="n">
+        <v>51.36</v>
+      </c>
+      <c r="R5" s="49" t="n">
+        <v>51.67</v>
+      </c>
+      <c r="S5" s="49" t="n">
+        <v>49.83</v>
+      </c>
+      <c r="T5" s="49" t="n">
+        <v>48.92</v>
+      </c>
+      <c r="U5" s="49" t="n">
+        <v>51.27</v>
+      </c>
+      <c r="V5" s="49" t="n">
+        <v>52.94</v>
+      </c>
+      <c r="W5" s="49" t="n">
+        <v>55.31</v>
+      </c>
+      <c r="X5" s="50" t="n">
+        <v>57.33</v>
+      </c>
+      <c r="Y5" s="49" t="n">
+        <v>55.67</v>
+      </c>
+      <c r="Z5" s="50" t="n">
+        <v>58.32</v>
+      </c>
+      <c r="AA5" s="49" t="n">
+        <v>56.87</v>
+      </c>
+      <c r="AB5" s="49" t="n">
+        <v>54.14</v>
+      </c>
+      <c r="AC5" s="50" t="n">
+        <v>59.28</v>
+      </c>
+      <c r="AD5" s="50" t="n">
+        <v>62.12</v>
+      </c>
+      <c r="AE5" s="50" t="n">
+        <v>67.78</v>
+      </c>
+      <c r="AF5" s="50" t="n">
+        <v>75.31999999999999</v>
+      </c>
+      <c r="AG5" s="50" t="n">
+        <v>79.84</v>
+      </c>
+      <c r="AH5" s="50" t="n">
+        <v>77.52</v>
+      </c>
+      <c r="AI5" s="50" t="n">
+        <v>74.83</v>
+      </c>
+      <c r="AJ5" s="50" t="n">
+        <v>74.83</v>
+      </c>
+      <c r="AK5" s="50" t="n">
+        <v>74.83</v>
+      </c>
+      <c r="AL5" s="51" t="inlineStr">
+        <is>
+          <t>Etrade IRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1" s="67">
+      <c r="A6" s="40" t="inlineStr">
+        <is>
+          <t>BRSP</t>
+        </is>
+      </c>
+      <c r="B6" s="41" t="n">
+        <v>568</v>
+      </c>
+      <c r="C6" s="42" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="D6" s="42" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="E6" s="43" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F6" s="44" t="n">
+        <v>-0.008699999999999999</v>
+      </c>
+      <c r="G6" s="45">
+        <f>B6*D6</f>
+        <v/>
+      </c>
+      <c r="H6" s="46">
+        <f>B6*C6</f>
+        <v/>
+      </c>
+      <c r="I6" s="45">
+        <f>G6-H6</f>
+        <v/>
+      </c>
+      <c r="J6" s="77" t="n">
+        <v>45852.70179398148</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="L6" s="1">
+        <f>((D6*R6)/100)/12</f>
+        <v/>
+      </c>
+      <c r="M6" s="1">
+        <f>((B6*D6)*(O6/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N6" s="1">
+        <f>(($B6*$D6)*(R6/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O6" s="48" t="n">
+        <v>10.31</v>
+      </c>
+      <c r="P6" s="62" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="Q6" s="62" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="R6" s="50" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="S6" s="50" t="n">
+        <v>13.03</v>
+      </c>
+      <c r="T6" s="50" t="n">
+        <v>12.88</v>
+      </c>
+      <c r="U6" s="50" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="V6" s="50" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="W6" s="50" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="X6" s="50" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y6" s="50" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="Z6" s="50" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="AA6" s="50" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="AB6" s="50" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="AC6" s="50" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="AD6" s="50" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="AE6" s="50" t="n">
+        <v>13.53</v>
+      </c>
+      <c r="AF6" s="50" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="AG6" s="50" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="AH6" s="50" t="n">
+        <v>11.83</v>
+      </c>
+      <c r="AI6" s="50" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="AJ6" s="50" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="AK6" s="50" t="n">
+        <v>10.65</v>
+      </c>
+      <c r="AL6" s="51" t="inlineStr">
+        <is>
+          <t>Etrade IRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1" s="67">
+      <c r="A7" s="40" t="inlineStr">
+        <is>
+          <t>CHMI</t>
+        </is>
+      </c>
+      <c r="B7" s="41" t="n">
+        <v>2425</v>
+      </c>
+      <c r="C7" s="42" t="n">
+        <v>3.39928</v>
+      </c>
+      <c r="D7" s="42" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="43" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F7" s="44" t="n">
+        <v>-0.0287</v>
+      </c>
+      <c r="G7" s="45">
+        <f>B7*D7</f>
+        <v/>
+      </c>
+      <c r="H7" s="46">
+        <f>B7*C7</f>
+        <v/>
+      </c>
+      <c r="I7" s="45">
+        <f>G7-H7</f>
+        <v/>
+      </c>
+      <c r="J7" s="77" t="n">
+        <v>45869.70179398148</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="L7" s="1">
+        <f>((D7*R7)/100)/12</f>
+        <v/>
+      </c>
+      <c r="M7" s="1">
+        <f>((B7*D7)*(O7/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N7" s="1">
+        <f>(($B7*$D7)*(R7/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O7" s="48" t="n">
+        <v>17</v>
+      </c>
+      <c r="P7" s="62" t="n">
+        <v>20.41</v>
+      </c>
+      <c r="Q7" s="62" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="R7" s="50" t="n">
+        <v>21.58</v>
+      </c>
+      <c r="S7" s="50" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="T7" s="50" t="n">
+        <v>22.56</v>
+      </c>
+      <c r="U7" s="50" t="n">
+        <v>21.43</v>
+      </c>
+      <c r="V7" s="50" t="n">
+        <v>21.66</v>
+      </c>
+      <c r="W7" s="50" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="X7" s="50" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="Y7" s="50" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="Z7" s="50" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="AA7" s="50" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="AB7" s="50" t="n">
+        <v>20.13</v>
+      </c>
+      <c r="AC7" s="50" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="AD7" s="50" t="n">
+        <v>20.34</v>
+      </c>
+      <c r="AE7" s="50" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="AF7" s="50" t="n">
+        <v>22.39</v>
+      </c>
+      <c r="AG7" s="50" t="n">
+        <v>24.49</v>
+      </c>
+      <c r="AH7" s="50" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="AI7" s="50" t="n">
+        <v>17.44</v>
+      </c>
+      <c r="AJ7" s="49" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="AK7" s="49" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="AL7" s="51" t="inlineStr">
+        <is>
+          <t>Etrade IRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1" s="67">
+      <c r="A8" s="40" t="inlineStr">
+        <is>
+          <t>DSL</t>
+        </is>
+      </c>
+      <c r="B8" s="41" t="n">
+        <v>260</v>
+      </c>
+      <c r="C8" s="42" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D8" s="42" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="E8" s="43" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F8" s="44" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="G8" s="45">
+        <f>B8*D8</f>
+        <v/>
+      </c>
+      <c r="H8" s="46">
+        <f>B8*C8</f>
+        <v/>
+      </c>
+      <c r="I8" s="45">
+        <f>G8-H8</f>
+        <v/>
+      </c>
+      <c r="J8" s="77" t="n">
+        <v>45898.70179398148</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="L8" s="1">
+        <f>((D8*R8)/100)/12</f>
+        <v/>
+      </c>
+      <c r="M8" s="1">
+        <f>((B8*D8)*(O8/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N8" s="1">
+        <f>(($B8*$D8)*(R8/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O8" s="48" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="P8" s="49" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="Q8" s="49" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="R8" s="49" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="S8" s="49" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="T8" s="49" t="n">
+        <v>10.97</v>
+      </c>
+      <c r="U8" s="49" t="n">
+        <v>10.86</v>
+      </c>
+      <c r="V8" s="49" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="W8" s="49" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="X8" s="49" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="Y8" s="49" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="Z8" s="49" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="AA8" s="49" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="AB8" s="49" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="AC8" s="49" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="AD8" s="49" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="AE8" s="49" t="n">
+        <v>11.15</v>
+      </c>
+      <c r="AF8" s="49" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="AG8" s="49" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="AH8" s="49" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="AI8" s="50" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AJ8" s="50" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AK8" s="50" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AL8" s="51" t="inlineStr">
+        <is>
+          <t>Etrade IRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1" s="67">
+      <c r="A9" s="40" t="inlineStr">
+        <is>
+          <t>DX</t>
+        </is>
+      </c>
+      <c r="B9" s="41" t="n">
+        <v>625</v>
+      </c>
+      <c r="C9" s="42" t="n">
+        <v>11.9018</v>
+      </c>
+      <c r="D9" s="42" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="E9" s="43" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="F9" s="44" t="n">
+        <v>-0.0052</v>
+      </c>
+      <c r="G9" s="45">
+        <f>B9*D9</f>
+        <v/>
+      </c>
+      <c r="H9" s="46">
+        <f>B9*C9</f>
+        <v/>
+      </c>
+      <c r="I9" s="45">
+        <f>G9-H9</f>
+        <v/>
+      </c>
+      <c r="J9" s="77" t="n">
+        <v>45870.70179398148</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="L9" s="1">
+        <f>((D9*R9)/100)/12</f>
+        <v/>
+      </c>
+      <c r="M9" s="1">
+        <f>((B9*D9)*(O9/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N9" s="1">
+        <f>(($B9*$D9)*(R9/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O9" s="48" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="P9" s="62" t="n">
+        <v>16.23</v>
+      </c>
+      <c r="Q9" s="62" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="R9" s="50" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="S9" s="50" t="n">
+        <v>16</v>
+      </c>
+      <c r="T9" s="50" t="n">
+        <v>16.22</v>
+      </c>
+      <c r="U9" s="50" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="V9" s="50" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="W9" s="50" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="X9" s="50" t="n">
+        <v>16.71</v>
+      </c>
+      <c r="Y9" s="50" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="Z9" s="50" t="n">
+        <v>16.86</v>
+      </c>
+      <c r="AA9" s="50" t="n">
+        <v>17.16</v>
+      </c>
+      <c r="AB9" s="50" t="n">
+        <v>17.26</v>
+      </c>
+      <c r="AC9" s="50" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="AD9" s="50" t="n">
+        <v>16.73</v>
+      </c>
+      <c r="AE9" s="50" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="AF9" s="50" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="AG9" s="50" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="AH9" s="50" t="n">
+        <v>16.06</v>
+      </c>
+      <c r="AI9" s="50" t="n">
+        <v>15.63</v>
+      </c>
+      <c r="AJ9" s="49" t="n">
+        <v>14.53</v>
+      </c>
+      <c r="AK9" s="49" t="n">
+        <v>14.35</v>
+      </c>
+      <c r="AL9" s="51" t="inlineStr">
+        <is>
+          <t>Etrade IRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1" s="67">
+      <c r="A10" s="40" t="inlineStr">
+        <is>
+          <t>ECC</t>
+        </is>
+      </c>
+      <c r="B10" s="41" t="n">
+        <v>1142</v>
+      </c>
+      <c r="C10" s="42" t="n">
+        <v>10.0969</v>
+      </c>
+      <c r="D10" s="42" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E10" s="43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F10" s="44" t="n">
+        <v>0.0034</v>
+      </c>
+      <c r="G10" s="45">
+        <f>B10*D10</f>
+        <v/>
+      </c>
+      <c r="H10" s="46">
+        <f>B10*C10</f>
+        <v/>
+      </c>
+      <c r="I10" s="45">
+        <f>G10-H10</f>
+        <v/>
+      </c>
+      <c r="J10" s="77" t="n">
+        <v>45898.70179398148</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="L10" s="1">
+        <f>((D10*R10)/100)/12</f>
+        <v/>
+      </c>
+      <c r="M10" s="1">
+        <f>((B10*D10)*(O10/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N10" s="1">
+        <f>(($B10*$D10)*(R10/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O10" s="48" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="P10" s="62" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="Q10" s="62" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="R10" s="50" t="n">
+        <v>24.42</v>
+      </c>
+      <c r="S10" s="50" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="T10" s="50" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="U10" s="50" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="V10" s="50" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="W10" s="50" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="X10" s="50" t="n">
+        <v>22.31</v>
+      </c>
+      <c r="Y10" s="50" t="n">
+        <v>22.16</v>
+      </c>
+      <c r="Z10" s="50" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="AA10" s="50" t="n">
+        <v>21.37</v>
+      </c>
+      <c r="AB10" s="50" t="n">
+        <v>22.58</v>
+      </c>
+      <c r="AC10" s="50" t="n">
+        <v>21.03</v>
+      </c>
+      <c r="AD10" s="50" t="n">
+        <v>21.62</v>
+      </c>
+      <c r="AE10" s="50" t="n">
+        <v>21.76</v>
+      </c>
+      <c r="AF10" s="50" t="n">
+        <v>23.05</v>
+      </c>
+      <c r="AG10" s="50" t="n">
+        <v>23.08</v>
+      </c>
+      <c r="AH10" s="50" t="n">
+        <v>21.71</v>
+      </c>
+      <c r="AI10" s="50" t="n">
+        <v>20.87</v>
+      </c>
+      <c r="AJ10" s="50" t="n">
+        <v>21.21</v>
+      </c>
+      <c r="AK10" s="50" t="n">
+        <v>20.39</v>
+      </c>
+      <c r="AL10" s="51" t="inlineStr">
+        <is>
+          <t>Etrade IRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1" s="67">
+      <c r="A11" s="40" t="inlineStr">
+        <is>
+          <t>EIC</t>
+        </is>
+      </c>
+      <c r="B11" s="41" t="n">
+        <v>466</v>
+      </c>
+      <c r="C11" s="42" t="n">
+        <v>15.65</v>
+      </c>
+      <c r="D11" s="42" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="E11" s="43" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="F11" s="44" t="n">
+        <v>-0.0025</v>
+      </c>
+      <c r="G11" s="45">
+        <f>B11*D11</f>
+        <v/>
+      </c>
+      <c r="H11" s="46">
+        <f>B11*C11</f>
+        <v/>
+      </c>
+      <c r="I11" s="45">
+        <f>G11-H11</f>
+        <v/>
+      </c>
+      <c r="J11" s="77" t="n">
+        <v>45898.70180555555</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="L11" s="1">
+        <f>((D11*R11)/100)/12</f>
+        <v/>
+      </c>
+      <c r="M11" s="1">
+        <f>((B11*D11)*(O11/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N11" s="1">
+        <f>(($B11*$D11)*(R11/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O11" s="48" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="P11" s="49" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="Q11" s="49" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="R11" s="49" t="n">
+        <v>12.01</v>
+      </c>
+      <c r="S11" s="49" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="T11" s="49" t="n">
+        <v>11.61</v>
+      </c>
+      <c r="U11" s="49" t="n">
+        <v>11.24</v>
+      </c>
+      <c r="V11" s="49" t="n">
+        <v>11.35</v>
+      </c>
+      <c r="W11" s="49" t="n">
+        <v>11.62</v>
+      </c>
+      <c r="X11" s="49" t="n">
+        <v>11.66</v>
+      </c>
+      <c r="Y11" s="49" t="n">
+        <v>11.86</v>
+      </c>
+      <c r="Z11" s="49" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="AA11" s="49" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="AB11" s="50" t="n">
+        <v>16.72</v>
+      </c>
+      <c r="AC11" s="50" t="n">
+        <v>16.67</v>
+      </c>
+      <c r="AD11" s="50" t="n">
+        <v>17.13</v>
+      </c>
+      <c r="AE11" s="50" t="n">
+        <v>17.13</v>
+      </c>
+      <c r="AF11" s="50" t="n">
+        <v>17.38</v>
+      </c>
+      <c r="AG11" s="50" t="n">
+        <v>17.08</v>
+      </c>
+      <c r="AH11" s="50" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="AI11" s="50" t="n">
+        <v>16.02</v>
+      </c>
+      <c r="AJ11" s="50" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="AK11" s="50" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="AL11" s="51" t="inlineStr">
+        <is>
+          <t>Etrade IRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1" s="67">
+      <c r="A12" s="40" t="inlineStr">
+        <is>
+          <t>MORT</t>
+        </is>
+      </c>
+      <c r="B12" s="41" t="n">
+        <v>90</v>
+      </c>
+      <c r="C12" s="42" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D12" s="42" t="n">
+        <v>10.73</v>
+      </c>
+      <c r="E12" s="43" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="F12" s="44" t="n">
+        <v>-0.0187</v>
+      </c>
+      <c r="G12" s="45">
+        <f>B12*D12</f>
+        <v/>
+      </c>
+      <c r="H12" s="46">
+        <f>B12*C12</f>
+        <v/>
+      </c>
+      <c r="I12" s="45">
+        <f>G12-H12</f>
+        <v/>
+      </c>
+      <c r="J12" s="77" t="n">
+        <v>45845.70180555555</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="L12" s="1">
+        <f>((D12*R12)/100)/12</f>
+        <v/>
+      </c>
+      <c r="M12" s="1">
+        <f>((B12*D12)*(O12/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N12" s="1">
+        <f>(($B12*$D12)*(R12/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O12" s="48" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="P12" s="62" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="Q12" s="62" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="R12" s="50" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="S12" s="50" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="T12" s="50" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="U12" s="50" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="V12" s="50" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="W12" s="50" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="X12" s="50" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="Y12" s="50" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="Z12" s="50" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="AA12" s="50" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="AB12" s="50" t="n">
+        <v>13.05</v>
+      </c>
+      <c r="AC12" s="50" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="AD12" s="50" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="AE12" s="50" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="AF12" s="50" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="AG12" s="50" t="n">
         <v>14.2</v>
       </c>
-      <c r="Q2" s="50" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="R2" s="50" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="S2" s="50" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="T2" s="50" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="U2" s="50" t="n">
-        <v>10.85</v>
-      </c>
-      <c r="V2" s="50" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="W2" s="50" t="n">
-        <v>11.73</v>
-      </c>
-      <c r="X2" s="50" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="Y2" s="50" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="Z2" s="50" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="AA2" s="50" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="AB2" s="50" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="AC2" s="50" t="n">
+      <c r="AH12" s="50" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="AI12" s="49" t="n">
+        <v>10.41</v>
+      </c>
+      <c r="AJ12" s="50" t="n">
         <v>10.83</v>
       </c>
-      <c r="AD2" s="51" t="n">
-        <v>15.4</v>
-      </c>
-      <c r="AE2" s="51" t="n">
-        <v>16.03</v>
-      </c>
-      <c r="AF2" s="51" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="AG2" s="51" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="AH2" s="51" t="n">
+      <c r="AK12" s="50" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="AL12" s="51" t="inlineStr">
+        <is>
+          <t>Etrade IRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1" s="67">
+      <c r="A13" s="40" t="inlineStr">
+        <is>
+          <t>NHS</t>
+        </is>
+      </c>
+      <c r="B13" s="41" t="n">
+        <v>917</v>
+      </c>
+      <c r="C13" s="42" t="n">
+        <v>8.1136</v>
+      </c>
+      <c r="D13" s="42" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="E13" s="43" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F13" s="44" t="n">
+        <v>-0.0115</v>
+      </c>
+      <c r="G13" s="45">
+        <f>B13*D13</f>
+        <v/>
+      </c>
+      <c r="H13" s="46">
+        <f>B13*C13</f>
+        <v/>
+      </c>
+      <c r="I13" s="45">
+        <f>G13-H13</f>
+        <v/>
+      </c>
+      <c r="J13" s="77" t="n">
+        <v>45898.70180555555</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="L13" s="1">
+        <f>((D13*R13)/100)/12</f>
+        <v/>
+      </c>
+      <c r="M13" s="1">
+        <f>((B13*D13)*(O13/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N13" s="1">
+        <f>(($B13*$D13)*(R13/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O13" s="48" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="P13" s="62" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="Q13" s="62" t="n">
         <v>14.63</v>
       </c>
-      <c r="AI2" s="50" t="n">
+      <c r="R13" s="50" t="n">
+        <v>14.67</v>
+      </c>
+      <c r="S13" s="50" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="T13" s="50" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="U13" s="50" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="V13" s="50" t="n">
+        <v>14.31</v>
+      </c>
+      <c r="W13" s="50" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="X13" s="50" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="Y13" s="50" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="Z13" s="50" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="AA13" s="50" t="n">
+        <v>14.37</v>
+      </c>
+      <c r="AB13" s="50" t="n">
+        <v>14.78</v>
+      </c>
+      <c r="AC13" s="50" t="n">
+        <v>14.38</v>
+      </c>
+      <c r="AD13" s="50" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="AE13" s="50" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF13" s="50" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="AG13" s="50" t="n">
+        <v>15.34</v>
+      </c>
+      <c r="AH13" s="50" t="n">
+        <v>14.27</v>
+      </c>
+      <c r="AI13" s="50" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="AJ13" s="50" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="AK13" s="50" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="AL13" s="51" t="inlineStr">
+        <is>
+          <t>Etrade IRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1" s="67">
+      <c r="A14" s="40" t="inlineStr">
+        <is>
+          <t>OFS</t>
+        </is>
+      </c>
+      <c r="B14" s="41" t="n">
+        <v>1385</v>
+      </c>
+      <c r="C14" s="42" t="n">
+        <v>9.5274</v>
+      </c>
+      <c r="D14" s="42" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="E14" s="43" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="F14" s="44" t="n">
+        <v>-0.0037</v>
+      </c>
+      <c r="G14" s="45">
+        <f>B14*D14</f>
+        <v/>
+      </c>
+      <c r="H14" s="46">
+        <f>B14*C14</f>
+        <v/>
+      </c>
+      <c r="I14" s="45">
+        <f>G14-H14</f>
+        <v/>
+      </c>
+      <c r="J14" s="77" t="n">
+        <v>45930.70180555555</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Quarterly</t>
+        </is>
+      </c>
+      <c r="L14" s="1">
+        <f>((D14*R14)/100)/12</f>
+        <v/>
+      </c>
+      <c r="M14" s="1">
+        <f>((B14*D14)*(O14/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N14" s="1">
+        <f>(($B14*$D14)*(R14/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O14" s="48" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="P14" s="62" t="n">
+        <v>16.43</v>
+      </c>
+      <c r="Q14" s="62" t="n">
+        <v>16.45</v>
+      </c>
+      <c r="R14" s="52" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="S14" s="52" t="n">
+        <v>16.04</v>
+      </c>
+      <c r="T14" s="49" t="n">
+        <v>15.96</v>
+      </c>
+      <c r="U14" s="50" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="V14" s="49" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="W14" s="50" t="n">
+        <v>16.08</v>
+      </c>
+      <c r="X14" s="49" t="n">
+        <v>15.53</v>
+      </c>
+      <c r="Y14" s="49" t="n">
+        <v>15.23</v>
+      </c>
+      <c r="Z14" s="50" t="n">
+        <v>16.19</v>
+      </c>
+      <c r="AA14" s="50" t="n">
+        <v>16.22</v>
+      </c>
+      <c r="AB14" s="50" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="AC14" s="49" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="AD14" s="49" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="AE14" s="49" t="n">
+        <v>15.93</v>
+      </c>
+      <c r="AF14" s="50" t="n">
+        <v>16.69</v>
+      </c>
+      <c r="AG14" s="50" t="n">
+        <v>16.35</v>
+      </c>
+      <c r="AH14" s="49" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="AI14" s="49" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="AJ14" s="49" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="AK14" s="49" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="AL14" s="51" t="inlineStr">
+        <is>
+          <t>Etrade IRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1" s="67">
+      <c r="A15" s="40" t="inlineStr">
+        <is>
+          <t>PDI</t>
+        </is>
+      </c>
+      <c r="B15" s="41" t="n">
+        <v>688</v>
+      </c>
+      <c r="C15" s="42" t="n">
+        <v>19.1513</v>
+      </c>
+      <c r="D15" s="42" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="E15" s="43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="44" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="G15" s="45">
+        <f>B15*D15</f>
+        <v/>
+      </c>
+      <c r="H15" s="46">
+        <f>B15*C15</f>
+        <v/>
+      </c>
+      <c r="I15" s="45">
+        <f>G15-H15</f>
+        <v/>
+      </c>
+      <c r="J15" s="77" t="n">
+        <v>45870.70180555555</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="L15" s="1">
+        <f>((D15*R15)/100)/12</f>
+        <v/>
+      </c>
+      <c r="M15" s="1">
+        <f>((B15*D15)*(O15/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N15" s="1">
+        <f>(($B15*$D15)*(R15/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O15" s="48" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="P15" s="49" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="Q15" s="49" t="n">
+        <v>13.71</v>
+      </c>
+      <c r="R15" s="49" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="S15" s="49" t="n">
+        <v>13.85</v>
+      </c>
+      <c r="T15" s="49" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="U15" s="49" t="n">
+        <v>13.93</v>
+      </c>
+      <c r="V15" s="49" t="n">
+        <v>13.89</v>
+      </c>
+      <c r="W15" s="49" t="n">
+        <v>14.05</v>
+      </c>
+      <c r="X15" s="49" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="Y15" s="49" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="Z15" s="49" t="n">
+        <v>14.03</v>
+      </c>
+      <c r="AA15" s="49" t="n">
+        <v>14.07</v>
+      </c>
+      <c r="AB15" s="49" t="n">
+        <v>14.41</v>
+      </c>
+      <c r="AC15" s="49" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="AD15" s="49" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="AE15" s="49" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="AF15" s="49" t="n">
+        <v>14.93</v>
+      </c>
+      <c r="AG15" s="49" t="n">
+        <v>14.89</v>
+      </c>
+      <c r="AH15" s="49" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="AI15" s="50" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="AJ15" s="50" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="AK15" s="50" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="AL15" s="51" t="inlineStr">
+        <is>
+          <t>Etrade IRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1" s="67">
+      <c r="A16" s="40" t="inlineStr">
+        <is>
+          <t>QDTE</t>
+        </is>
+      </c>
+      <c r="B16" s="41" t="n">
+        <v>276</v>
+      </c>
+      <c r="C16" s="42" t="n">
+        <v>38.83</v>
+      </c>
+      <c r="D16" s="42" t="n">
+        <v>35.47</v>
+      </c>
+      <c r="E16" s="43" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="F16" s="44" t="n">
+        <v>-0.0107</v>
+      </c>
+      <c r="G16" s="45">
+        <f>B16*D16</f>
+        <v/>
+      </c>
+      <c r="H16" s="46">
+        <f>B16*C16</f>
+        <v/>
+      </c>
+      <c r="I16" s="45">
+        <f>G16-H16</f>
+        <v/>
+      </c>
+      <c r="J16" s="77" t="n">
+        <v>45870.70180555555</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="L16" s="1">
+        <f>((D16*R16)/100)/12</f>
+        <v/>
+      </c>
+      <c r="M16" s="1">
+        <f>((B16*D16)*(O16/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N16" s="1">
+        <f>(($B16*$D16)*(R16/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O16" s="53" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="P16" s="62" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="Q16" s="62" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="R16" s="49" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="S16" s="49" t="n">
+        <v>8</v>
+      </c>
+      <c r="T16" s="50" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="U16" s="50" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="V16" s="50" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="W16" s="50" t="n">
+        <v>8.43</v>
+      </c>
+      <c r="X16" s="50" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="Y16" s="49" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Z16" s="50" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA16" s="50" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="AB16" s="49" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="AC16" s="50" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="AD16" s="50" t="n">
+        <v>8.17</v>
+      </c>
+      <c r="AE16" s="50" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="AF16" s="50" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AG16" s="50" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="AH16" s="50" t="n">
+        <v>9.130000000000001</v>
+      </c>
+      <c r="AI16" s="54" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="AJ16" s="54" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="AK16" s="54" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AL16" s="51" t="inlineStr">
+        <is>
+          <t>Etrade IRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" s="67">
+      <c r="A17" s="40" t="inlineStr">
+        <is>
+          <t>QYLD</t>
+        </is>
+      </c>
+      <c r="B17" s="41" t="n">
+        <v>350</v>
+      </c>
+      <c r="C17" s="42" t="n">
+        <v>17.92</v>
+      </c>
+      <c r="D17" s="42" t="n">
+        <v>16.84</v>
+      </c>
+      <c r="E17" s="43" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="F17" s="44" t="n">
+        <v>-0.0038</v>
+      </c>
+      <c r="G17" s="45">
+        <f>B17*D17</f>
+        <v/>
+      </c>
+      <c r="H17" s="46">
+        <f>B17*C17</f>
+        <v/>
+      </c>
+      <c r="I17" s="45">
+        <f>G17-H17</f>
+        <v/>
+      </c>
+      <c r="J17" s="77" t="n">
+        <v>45866.70180555555</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="L17" s="1">
+        <f>((D17*R17)/100)/12</f>
+        <v/>
+      </c>
+      <c r="M17" s="1">
+        <f>((B17*D17)*(O17/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N17" s="1">
+        <f>(($B17*$D17)*(R17/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O17" s="48" t="n">
+        <v>12.38</v>
+      </c>
+      <c r="P17" s="49" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="Q17" s="49" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="R17" s="50" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="S17" s="50" t="n">
+        <v>12.39</v>
+      </c>
+      <c r="T17" s="50" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="U17" s="50" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="V17" s="50" t="n">
+        <v>12.49</v>
+      </c>
+      <c r="W17" s="50" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="X17" s="50" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="Y17" s="50" t="n">
+        <v>12.57</v>
+      </c>
+      <c r="Z17" s="50" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="AA17" s="50" t="n">
+        <v>12.72</v>
+      </c>
+      <c r="AB17" s="50" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="AC17" s="50" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="AD17" s="50" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="AE17" s="50" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="AF17" s="50" t="n">
+        <v>13.15</v>
+      </c>
+      <c r="AG17" s="50" t="n">
+        <v>13.14</v>
+      </c>
+      <c r="AH17" s="50" t="n">
+        <v>13.02</v>
+      </c>
+      <c r="AI17" s="50" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="AJ17" s="50" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="AK17" s="50" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="AL17" s="51" t="inlineStr">
+        <is>
+          <t>Etrade IRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1" s="67">
+      <c r="A18" s="40" t="inlineStr">
+        <is>
+          <t>RYLD</t>
+        </is>
+      </c>
+      <c r="B18" s="41" t="n">
+        <v>579</v>
+      </c>
+      <c r="C18" s="42" t="n">
+        <v>16.5407</v>
+      </c>
+      <c r="D18" s="42" t="n">
+        <v>15</v>
+      </c>
+      <c r="E18" s="43" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="F18" s="44" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="G18" s="45">
+        <f>B18*D18</f>
+        <v/>
+      </c>
+      <c r="H18" s="46">
+        <f>B18*C18</f>
+        <v/>
+      </c>
+      <c r="I18" s="45">
+        <f>G18-H18</f>
+        <v/>
+      </c>
+      <c r="J18" s="77" t="n">
+        <v>45866.70180555555</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="L18" s="1">
+        <f>((D18*R18)/100)/12</f>
+        <v/>
+      </c>
+      <c r="M18" s="1">
+        <f>((B18*D18)*(O18/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N18" s="1">
+        <f>(($B18*$D18)*(R18/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O18" s="48" t="n">
+        <v>11.87</v>
+      </c>
+      <c r="P18" s="62" t="n">
+        <v>12.52</v>
+      </c>
+      <c r="Q18" s="62" t="n">
+        <v>12.83</v>
+      </c>
+      <c r="R18" s="50" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="S18" s="50" t="n">
+        <v>12.77</v>
+      </c>
+      <c r="T18" s="50" t="n">
+        <v>12.66</v>
+      </c>
+      <c r="U18" s="50" t="n">
+        <v>12.67</v>
+      </c>
+      <c r="V18" s="50" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="W18" s="50" t="n">
+        <v>12.81</v>
+      </c>
+      <c r="X18" s="50" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="Y18" s="50" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="Z18" s="50" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="AA18" s="50" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="AB18" s="50" t="n">
+        <v>13.39</v>
+      </c>
+      <c r="AC18" s="50" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AD18" s="50" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="AE18" s="50" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="AF18" s="50" t="n">
+        <v>13.79</v>
+      </c>
+      <c r="AG18" s="50" t="n">
         <v>14.02</v>
       </c>
-      <c r="AJ2" s="50" t="n">
-        <v>13.86</v>
-      </c>
-      <c r="AK2" s="52" t="inlineStr">
+      <c r="AH18" s="50" t="n">
+        <v>13.48</v>
+      </c>
+      <c r="AI18" s="50" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="AJ18" s="50" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="AK18" s="50" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="AL18" s="51" t="inlineStr">
         <is>
           <t>Etrade IRA</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" s="66">
-      <c r="A3" s="41" t="inlineStr">
-        <is>
-          <t>ACP</t>
-        </is>
-      </c>
-      <c r="B3" s="42" t="n">
-        <v>1625</v>
-      </c>
-      <c r="C3" s="43" t="n">
-        <v>6.6412</v>
-      </c>
-      <c r="D3" s="43" t="n">
-        <v>5.96</v>
-      </c>
-      <c r="E3" s="44" t="n">
-        <v>-32.5</v>
-      </c>
-      <c r="F3" s="44" t="n">
+    <row r="19" ht="15.75" customHeight="1" s="67">
+      <c r="A19" s="40" t="inlineStr">
+        <is>
+          <t>SVOL</t>
+        </is>
+      </c>
+      <c r="B19" s="41" t="n">
+        <v>552</v>
+      </c>
+      <c r="C19" s="42" t="n">
+        <v>22.3288</v>
+      </c>
+      <c r="D19" s="42" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="E19" s="43" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="F19" s="44" t="n">
+        <v>-0.0121</v>
+      </c>
+      <c r="G19" s="45">
+        <f>B19*D19</f>
+        <v/>
+      </c>
+      <c r="H19" s="46">
+        <f>B19*C19</f>
+        <v/>
+      </c>
+      <c r="I19" s="45">
+        <f>G19-H19</f>
+        <v/>
+      </c>
+      <c r="J19" s="77" t="n">
+        <v>45869.70180555555</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Monthly</t>
+        </is>
+      </c>
+      <c r="L19" s="1">
+        <f>((D19*R19)/100)/12</f>
+        <v/>
+      </c>
+      <c r="M19" s="1">
+        <f>((B19*D19)*(O19/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N19" s="1">
+        <f>(($B19*$D19)*(R19/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O19" s="48" t="n">
+        <v>16.29</v>
+      </c>
+      <c r="P19" s="62" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="Q19" s="62" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="R19" s="50" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="S19" s="50" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="T19" s="50" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="U19" s="50" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="V19" s="50" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="W19" s="50" t="n">
+        <v>19.19</v>
+      </c>
+      <c r="X19" s="50" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y19" s="50" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="Z19" s="50" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="AA19" s="50" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="AB19" s="50" t="n">
+        <v>18.56</v>
+      </c>
+      <c r="AC19" s="50" t="n">
+        <v>20.56</v>
+      </c>
+      <c r="AD19" s="50" t="n">
+        <v>20.31</v>
+      </c>
+      <c r="AE19" s="50" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="AF19" s="50" t="n">
+        <v>21.94</v>
+      </c>
+      <c r="AG19" s="50" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="AH19" s="50" t="n">
+        <v>19.76</v>
+      </c>
+      <c r="AI19" s="50" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="AJ19" s="50" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="AK19" s="50" t="n">
+        <v>16.65</v>
+      </c>
+      <c r="AL19" s="51" t="inlineStr">
+        <is>
+          <t>Etrade IRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1" s="67">
+      <c r="A20" s="40" t="inlineStr">
+        <is>
+          <t>DX</t>
+        </is>
+      </c>
+      <c r="B20" s="41" t="n">
+        <v>125</v>
+      </c>
+      <c r="C20" s="42" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="D20" s="42" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="E20" s="43" t="n">
         <v>-0.02</v>
       </c>
-      <c r="G3" s="45" t="n">
-        <v>-0.0033</v>
-      </c>
-      <c r="H3" s="46">
-        <f>B3*D3</f>
-        <v/>
-      </c>
-      <c r="I3" s="47">
-        <f>B3*C3</f>
-        <v/>
-      </c>
-      <c r="J3" s="46">
-        <f>H3-I3</f>
-        <v/>
-      </c>
-      <c r="K3" s="76" t="n">
-        <v>45869.70179398148</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="F20" s="44" t="n">
+        <v>0.0525</v>
+      </c>
+      <c r="G20" s="45">
+        <f>B20*D20</f>
+        <v/>
+      </c>
+      <c r="H20" s="46">
+        <f>B20*C20</f>
+        <v/>
+      </c>
+      <c r="I20" s="45">
+        <f>G20-H20</f>
+        <v/>
+      </c>
+      <c r="J20" s="77" t="n">
+        <v>45870.70181712963</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="M3" s="1">
-        <f>((D3*Q3)/100)/12</f>
-        <v/>
-      </c>
-      <c r="N3" s="1">
-        <f>((B3*D3)*(P3/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O3" s="1">
-        <f>(($B3*$D3)*(Q3/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P3" s="49" t="n">
-        <v>15.53</v>
-      </c>
-      <c r="Q3" s="51" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="R3" s="51" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="S3" s="51" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="T3" s="51" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="U3" s="51" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="V3" s="51" t="n">
-        <v>15.87</v>
-      </c>
-      <c r="W3" s="51" t="n">
-        <v>15.82</v>
-      </c>
-      <c r="X3" s="51" t="n">
-        <v>15.76</v>
-      </c>
-      <c r="Y3" s="51" t="n">
-        <v>15.92</v>
-      </c>
-      <c r="Z3" s="51" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="AA3" s="51" t="n">
+      <c r="L20" s="1" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M20" s="1">
+        <f>((B20*D20)*(O20/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N20" s="1">
+        <f>(($B20*$D20)*(R20/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O20" s="48" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="P20" s="62" t="n">
         <v>16.23</v>
       </c>
-      <c r="AB3" s="51" t="n">
-        <v>16.29</v>
-      </c>
-      <c r="AC3" s="51" t="n">
+      <c r="Q20" s="62" t="n">
+        <v>16.55</v>
+      </c>
+      <c r="R20" s="50" t="n">
         <v>16.4</v>
       </c>
-      <c r="AD3" s="51" t="n">
-        <v>16.79</v>
-      </c>
-      <c r="AE3" s="51" t="n">
-        <v>16.88</v>
-      </c>
-      <c r="AF3" s="51" t="n">
-        <v>17.35</v>
-      </c>
-      <c r="AG3" s="51" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="AH3" s="51" t="n">
-        <v>15.74</v>
-      </c>
-      <c r="AI3" s="50" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AJ3" s="51" t="n">
-        <v>15.68</v>
-      </c>
-      <c r="AK3" s="52" t="inlineStr">
-        <is>
-          <t>Etrade IRA</t>
+      <c r="S20" s="50" t="n">
+        <v>16</v>
+      </c>
+      <c r="T20" s="50" t="n">
+        <v>16.22</v>
+      </c>
+      <c r="U20" s="48" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="V20" s="48" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="W20" s="48" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="X20" s="48" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="Y20" s="48" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="Z20" s="48" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="AA20" s="48" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="AB20" s="48" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="AC20" s="48" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="AD20" s="48" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="AE20" s="48" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="AF20" s="48" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="AG20" s="48" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="AH20" s="48" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="AI20" s="48" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="AJ20" s="48" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="AK20" s="48" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="AL20" s="51" t="inlineStr">
+        <is>
+          <t>Schwab individual</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" s="66">
-      <c r="A4" s="41" t="inlineStr">
+    <row r="21" ht="15.75" customHeight="1" s="67">
+      <c r="A21" s="40" t="inlineStr">
         <is>
           <t>AGNC</t>
         </is>
       </c>
-      <c r="B4" s="42" t="n">
-        <v>736</v>
-      </c>
-      <c r="C4" s="43" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="D4" s="43" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E4" s="44" t="n">
-        <v>-51.52</v>
-      </c>
-      <c r="F4" s="44" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="G4" s="45" t="n">
-        <v>-0.0069</v>
-      </c>
-      <c r="H4" s="46">
-        <f>B4*D4</f>
-        <v/>
-      </c>
-      <c r="I4" s="47">
-        <f>B4*C4</f>
-        <v/>
-      </c>
-      <c r="J4" s="46">
-        <f>H4-I4</f>
-        <v/>
-      </c>
-      <c r="K4" s="76" t="n">
-        <v>45880.70179398148</v>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="B21" s="41" t="n">
+        <v>1060</v>
+      </c>
+      <c r="C21" s="42" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="D21" s="48" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="E21" s="43" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F21" s="44" t="n">
+        <v>-0.018</v>
+      </c>
+      <c r="G21" s="45">
+        <f>B21*D21</f>
+        <v/>
+      </c>
+      <c r="H21" s="46">
+        <f>B21*C21</f>
+        <v/>
+      </c>
+      <c r="I21" s="45">
+        <f>G21-H21</f>
+        <v/>
+      </c>
+      <c r="J21" s="77" t="n">
+        <v>45880.70181712963</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="M4" s="1">
-        <f>((D4*Q4)/100)/12</f>
-        <v/>
-      </c>
-      <c r="N4" s="1">
-        <f>((B4*D4)*(P4/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O4" s="1">
-        <f>(($B4*$D4)*(Q4/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P4" s="49" t="n">
-        <v>13.81</v>
-      </c>
-      <c r="Q4" s="51" t="n">
+      <c r="L21" s="55" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M21" s="1">
+        <f>((B21*D21)*(O21/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N21" s="1">
+        <f>(($B21*$D21)*(R21/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O21" s="56" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="P21" s="49" t="n">
+        <v>14.98</v>
+      </c>
+      <c r="Q21" s="49" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="R21" s="49" t="n">
         <v>15.27</v>
       </c>
-      <c r="R4" s="51" t="n">
+      <c r="S21" s="49" t="n">
         <v>14.83</v>
       </c>
-      <c r="S4" s="51" t="n">
+      <c r="T21" s="50" t="n">
         <v>15.52</v>
       </c>
-      <c r="T4" s="51" t="n">
+      <c r="U21" s="49" t="n">
         <v>15.24</v>
       </c>
-      <c r="U4" s="51" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="V4" s="51" t="n">
-        <v>15.45</v>
-      </c>
-      <c r="W4" s="51" t="n">
-        <v>15.55</v>
-      </c>
-      <c r="X4" s="51" t="n">
-        <v>15.32</v>
-      </c>
-      <c r="Y4" s="51" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="Z4" s="51" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="AA4" s="51" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="AB4" s="51" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="AC4" s="51" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="AD4" s="51" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="AE4" s="51" t="n">
-        <v>17.35</v>
-      </c>
-      <c r="AF4" s="51" t="n">
-        <v>17.73</v>
-      </c>
-      <c r="AG4" s="51" t="n">
-        <v>15.42</v>
-      </c>
-      <c r="AH4" s="51" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="AI4" s="51" t="n">
-        <v>14.17</v>
-      </c>
-      <c r="AJ4" s="51" t="n">
-        <v>14.06</v>
-      </c>
-      <c r="AK4" s="52" t="inlineStr">
-        <is>
-          <t>Etrade IRA</t>
+      <c r="V21" s="56" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="W21" s="56" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="X21" s="56" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="Y21" s="56" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="Z21" s="56" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="AA21" s="56" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="AB21" s="56" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="AC21" s="56" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="AD21" s="56" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="AE21" s="56" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="AF21" s="56" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="AG21" s="56" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="AH21" s="56" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="AI21" s="56" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="AJ21" s="56" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="AK21" s="56" t="n">
+        <v>15.38</v>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>Schwab IRA</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" s="66">
-      <c r="A5" s="41" t="inlineStr">
-        <is>
-          <t>BITO</t>
-        </is>
-      </c>
-      <c r="B5" s="42" t="n">
-        <v>440</v>
-      </c>
-      <c r="C5" s="43" t="n">
-        <v>28.0018</v>
-      </c>
-      <c r="D5" s="43" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E5" s="44" t="n">
-        <v>-118.8</v>
-      </c>
-      <c r="F5" s="44" t="n">
-        <v>-0.27</v>
-      </c>
-      <c r="G5" s="45" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="H5" s="46">
-        <f>B5*D5</f>
-        <v/>
-      </c>
-      <c r="I5" s="47">
-        <f>B5*C5</f>
-        <v/>
-      </c>
-      <c r="J5" s="46">
-        <f>H5-I5</f>
-        <v/>
-      </c>
-      <c r="K5" s="76" t="n">
-        <v>45876.70179398148</v>
-      </c>
-      <c r="L5" t="inlineStr">
+    <row r="22" ht="15.75" customHeight="1" s="67">
+      <c r="A22" s="40" t="inlineStr">
+        <is>
+          <t>QDTE</t>
+        </is>
+      </c>
+      <c r="B22" s="41" t="n">
+        <v>285</v>
+      </c>
+      <c r="C22" s="42" t="n">
+        <v>35.3</v>
+      </c>
+      <c r="D22" s="48" t="n">
+        <v>35.47</v>
+      </c>
+      <c r="E22" s="43" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F22" s="44" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="G22" s="45">
+        <f>B22*D22</f>
+        <v/>
+      </c>
+      <c r="H22" s="46">
+        <f>B22*C22</f>
+        <v/>
+      </c>
+      <c r="I22" s="45">
+        <f>G22-H22</f>
+        <v/>
+      </c>
+      <c r="J22" s="78" t="n">
+        <v>45870.70181712963</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Weekly</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="M22" s="1">
+        <f>((B22*D22)*(O22/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N22" s="1">
+        <f>(($B22*$D22)*(R22/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O22" s="58" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="P22" s="49" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="Q22" s="62" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="R22" s="49" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="S22" s="49" t="n">
+        <v>8</v>
+      </c>
+      <c r="T22" s="50" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="U22" s="58" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="V22" s="58" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="W22" s="58" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="X22" s="58" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="Y22" s="58" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="Z22" s="58" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="AA22" s="58" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="AB22" s="58" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="AC22" s="58" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="AD22" s="58" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="AE22" s="58" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="AF22" s="58" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="AG22" s="58" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="AH22" s="58" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="AI22" s="58" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="AJ22" s="58" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="AK22" s="58" t="n">
+        <v>8.08</v>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>Schwab IRA</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" s="67">
+      <c r="A23" s="40" t="inlineStr">
+        <is>
+          <t>ECC</t>
+        </is>
+      </c>
+      <c r="B23" s="41" t="n">
+        <v>1330</v>
+      </c>
+      <c r="C23" s="42" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="D23" s="48" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="E23" s="43" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F23" s="44" t="n">
+        <v>0.0068</v>
+      </c>
+      <c r="G23" s="45">
+        <f>B23*D23</f>
+        <v/>
+      </c>
+      <c r="H23" s="46">
+        <f>B23*C23</f>
+        <v/>
+      </c>
+      <c r="I23" s="45">
+        <f>G23-H23</f>
+        <v/>
+      </c>
+      <c r="J23" s="78" t="n">
+        <v>45898.70181712963</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>Monthly</t>
         </is>
       </c>
-      <c r="M5" s="1">
-        <f>((D5*Q5)/100)/12</f>
-        <v/>
-      </c>
-      <c r="N5" s="1">
-        <f>((B5*D5)*(P5/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O5" s="1">
-        <f>(($B5*$D5)*(Q5/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P5" s="49" t="n">
-        <v>57.07</v>
-      </c>
-      <c r="Q5" s="50" t="n">
-        <v>51.67</v>
-      </c>
-      <c r="R5" s="50" t="n">
-        <v>49.83</v>
-      </c>
-      <c r="S5" s="50" t="n">
-        <v>48.92</v>
-      </c>
-      <c r="T5" s="50" t="n">
-        <v>51.27</v>
-      </c>
-      <c r="U5" s="50" t="n">
-        <v>52.94</v>
-      </c>
-      <c r="V5" s="50" t="n">
-        <v>55.31</v>
-      </c>
-      <c r="W5" s="51" t="n">
-        <v>57.33</v>
-      </c>
-      <c r="X5" s="50" t="n">
-        <v>55.67</v>
-      </c>
-      <c r="Y5" s="51" t="n">
-        <v>58.32</v>
-      </c>
-      <c r="Z5" s="50" t="n">
-        <v>56.87</v>
-      </c>
-      <c r="AA5" s="50" t="n">
-        <v>54.14</v>
-      </c>
-      <c r="AB5" s="51" t="n">
-        <v>59.28</v>
-      </c>
-      <c r="AC5" s="51" t="n">
-        <v>62.12</v>
-      </c>
-      <c r="AD5" s="51" t="n">
-        <v>67.78</v>
-      </c>
-      <c r="AE5" s="51" t="n">
-        <v>75.31999999999999</v>
-      </c>
-      <c r="AF5" s="51" t="n">
-        <v>79.84</v>
-      </c>
-      <c r="AG5" s="51" t="n">
-        <v>77.52</v>
-      </c>
-      <c r="AH5" s="51" t="n">
-        <v>74.83</v>
-      </c>
-      <c r="AI5" s="51" t="n">
-        <v>74.83</v>
-      </c>
-      <c r="AJ5" s="51" t="n">
-        <v>74.83</v>
-      </c>
-      <c r="AK5" s="52" t="inlineStr">
-        <is>
-          <t>Etrade IRA</t>
+      <c r="L23" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="M23" s="1">
+        <f>((B23*D23)*(O23/100)/12)</f>
+        <v/>
+      </c>
+      <c r="N23" s="1">
+        <f>(($B23*$D23)*(R23/100)/12)</f>
+        <v/>
+      </c>
+      <c r="O23" s="58" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="P23" s="62" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="Q23" s="62" t="n">
+        <v>26.21</v>
+      </c>
+      <c r="R23" s="50" t="n">
+        <v>24.42</v>
+      </c>
+      <c r="S23" s="50" t="n">
+        <v>24.31</v>
+      </c>
+      <c r="T23" s="50" t="n">
+        <v>22.67</v>
+      </c>
+      <c r="U23" s="58" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="V23" s="58" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="W23" s="58" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="X23" s="58" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="Y23" s="58" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="Z23" s="58" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="AA23" s="58" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="AB23" s="58" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="AC23" s="58" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="AD23" s="58" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="AE23" s="58" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="AF23" s="58" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="AG23" s="58" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="AH23" s="58" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="AI23" s="58" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="AJ23" s="58" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="AK23" s="58" t="n">
+        <v>21.93</v>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>Schwab IRA</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="66">
-      <c r="A6" s="41" t="inlineStr">
-        <is>
-          <t>BRSP</t>
-        </is>
-      </c>
-      <c r="B6" s="42" t="n">
-        <v>568</v>
-      </c>
-      <c r="C6" s="43" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="D6" s="43" t="n">
-        <v>5.16</v>
-      </c>
-      <c r="E6" s="44" t="n">
-        <v>-28.4</v>
-      </c>
-      <c r="F6" s="44" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="G6" s="45" t="n">
-        <v>-0.008699999999999999</v>
-      </c>
-      <c r="H6" s="46">
-        <f>B6*D6</f>
-        <v/>
-      </c>
-      <c r="I6" s="47">
-        <f>B6*C6</f>
-        <v/>
-      </c>
-      <c r="J6" s="46">
-        <f>H6-I6</f>
-        <v/>
-      </c>
-      <c r="K6" s="76" t="n">
-        <v>45852.70179398148</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Quarterly</t>
-        </is>
-      </c>
-      <c r="M6" s="1">
-        <f>((D6*Q6)/100)/12</f>
-        <v/>
-      </c>
-      <c r="N6" s="1">
-        <f>((B6*D6)*(P6/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O6" s="1">
-        <f>(($B6*$D6)*(Q6/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P6" s="49" t="n">
-        <v>10.31</v>
-      </c>
-      <c r="Q6" s="51" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="R6" s="51" t="n">
-        <v>13.03</v>
-      </c>
-      <c r="S6" s="51" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="T6" s="51" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="U6" s="51" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="V6" s="51" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="W6" s="51" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="X6" s="51" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="Y6" s="51" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="Z6" s="51" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="AA6" s="51" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="AB6" s="51" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="AC6" s="51" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="AD6" s="51" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="AE6" s="51" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="AF6" s="51" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="AG6" s="51" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="AH6" s="51" t="n">
-        <v>11.27</v>
-      </c>
-      <c r="AI6" s="51" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="AJ6" s="51" t="n">
-        <v>10.65</v>
-      </c>
-      <c r="AK6" s="52" t="inlineStr">
-        <is>
-          <t>Etrade IRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" s="66">
-      <c r="A7" s="41" t="inlineStr">
-        <is>
-          <t>CHMI</t>
-        </is>
-      </c>
-      <c r="B7" s="42" t="n">
-        <v>2425</v>
-      </c>
-      <c r="C7" s="43" t="n">
-        <v>3.39928</v>
-      </c>
-      <c r="D7" s="43" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="E7" s="44" t="n">
-        <v>-242.5</v>
-      </c>
-      <c r="F7" s="44" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="G7" s="45" t="n">
-        <v>-0.0287</v>
-      </c>
-      <c r="H7" s="46">
-        <f>B7*D7</f>
-        <v/>
-      </c>
-      <c r="I7" s="47">
-        <f>B7*C7</f>
-        <v/>
-      </c>
-      <c r="J7" s="46">
-        <f>H7-I7</f>
-        <v/>
-      </c>
-      <c r="K7" s="76" t="n">
-        <v>45869.70179398148</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Quarterly</t>
-        </is>
-      </c>
-      <c r="M7" s="1">
-        <f>((D7*Q7)/100)/12</f>
-        <v/>
-      </c>
-      <c r="N7" s="1">
-        <f>((B7*D7)*(P7/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O7" s="1">
-        <f>(($B7*$D7)*(Q7/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P7" s="49" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="51" t="n">
-        <v>21.58</v>
-      </c>
-      <c r="R7" s="51" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="S7" s="51" t="n">
-        <v>22.56</v>
-      </c>
-      <c r="T7" s="51" t="n">
-        <v>21.43</v>
-      </c>
-      <c r="U7" s="51" t="n">
-        <v>21.66</v>
-      </c>
-      <c r="V7" s="51" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="W7" s="51" t="n">
-        <v>20.55</v>
-      </c>
-      <c r="X7" s="51" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="Y7" s="51" t="n">
-        <v>20.2</v>
-      </c>
-      <c r="Z7" s="51" t="n">
-        <v>20.34</v>
-      </c>
-      <c r="AA7" s="51" t="n">
-        <v>20.13</v>
-      </c>
-      <c r="AB7" s="51" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="AC7" s="51" t="n">
-        <v>20.34</v>
-      </c>
-      <c r="AD7" s="51" t="n">
-        <v>22.39</v>
-      </c>
-      <c r="AE7" s="51" t="n">
-        <v>22.39</v>
-      </c>
-      <c r="AF7" s="51" t="n">
-        <v>24.49</v>
-      </c>
-      <c r="AG7" s="51" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="AH7" s="51" t="n">
-        <v>17.44</v>
-      </c>
-      <c r="AI7" s="50" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="AJ7" s="50" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="AK7" s="52" t="inlineStr">
-        <is>
-          <t>Etrade IRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1" s="66">
-      <c r="A8" s="41" t="inlineStr">
-        <is>
-          <t>DSL</t>
-        </is>
-      </c>
-      <c r="B8" s="42" t="n">
-        <v>260</v>
-      </c>
-      <c r="C8" s="43" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D8" s="43" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="E8" s="44" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="F8" s="44" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G8" s="45" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="H8" s="46">
-        <f>B8*D8</f>
-        <v/>
-      </c>
-      <c r="I8" s="47">
-        <f>B8*C8</f>
-        <v/>
-      </c>
-      <c r="J8" s="46">
-        <f>H8-I8</f>
-        <v/>
-      </c>
-      <c r="K8" s="76" t="n">
-        <v>45898.70179398148</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="M8" s="1">
-        <f>((D8*Q8)/100)/12</f>
-        <v/>
-      </c>
-      <c r="N8" s="1">
-        <f>((B8*D8)*(P8/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O8" s="1">
-        <f>(($B8*$D8)*(Q8/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P8" s="49" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="Q8" s="50" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="R8" s="50" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="S8" s="50" t="n">
-        <v>10.97</v>
-      </c>
-      <c r="T8" s="50" t="n">
-        <v>10.86</v>
-      </c>
-      <c r="U8" s="50" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="V8" s="50" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="W8" s="50" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="X8" s="50" t="n">
-        <v>10.71</v>
-      </c>
-      <c r="Y8" s="50" t="n">
-        <v>10.73</v>
-      </c>
-      <c r="Z8" s="50" t="n">
-        <v>10.78</v>
-      </c>
-      <c r="AA8" s="50" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="AB8" s="50" t="n">
-        <v>10.91</v>
-      </c>
-      <c r="AC8" s="50" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="AD8" s="50" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="AE8" s="50" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="AF8" s="50" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="AG8" s="50" t="n">
-        <v>10.69</v>
-      </c>
-      <c r="AH8" s="51" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="AI8" s="51" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="AJ8" s="51" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="AK8" s="52" t="inlineStr">
-        <is>
-          <t>Etrade IRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1" s="66">
-      <c r="A9" s="41" t="inlineStr">
-        <is>
-          <t>DX</t>
-        </is>
-      </c>
-      <c r="B9" s="42" t="n">
-        <v>625</v>
-      </c>
-      <c r="C9" s="43" t="n">
-        <v>11.9018</v>
-      </c>
-      <c r="D9" s="43" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="E9" s="44" t="n">
-        <v>-37.94</v>
-      </c>
-      <c r="F9" s="44" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="G9" s="45" t="n">
-        <v>-0.0052</v>
-      </c>
-      <c r="H9" s="46">
-        <f>B9*D9</f>
-        <v/>
-      </c>
-      <c r="I9" s="47">
-        <f>B9*C9</f>
-        <v/>
-      </c>
-      <c r="J9" s="46">
-        <f>H9-I9</f>
-        <v/>
-      </c>
-      <c r="K9" s="76" t="n">
-        <v>45870.70179398148</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="M9" s="1">
-        <f>((D9*Q9)/100)/12</f>
-        <v/>
-      </c>
-      <c r="N9" s="1">
-        <f>((B9*D9)*(P9/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O9" s="1">
-        <f>(($B9*$D9)*(Q9/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P9" s="49" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="Q9" s="51" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="R9" s="51" t="n">
-        <v>16</v>
-      </c>
-      <c r="S9" s="51" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="T9" s="51" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="U9" s="51" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="V9" s="51" t="n">
-        <v>16.72</v>
-      </c>
-      <c r="W9" s="51" t="n">
-        <v>16.71</v>
-      </c>
-      <c r="X9" s="51" t="n">
-        <v>16.45</v>
-      </c>
-      <c r="Y9" s="51" t="n">
-        <v>16.86</v>
-      </c>
-      <c r="Z9" s="51" t="n">
-        <v>17.16</v>
-      </c>
-      <c r="AA9" s="51" t="n">
-        <v>17.26</v>
-      </c>
-      <c r="AB9" s="51" t="n">
-        <v>16.43</v>
-      </c>
-      <c r="AC9" s="51" t="n">
-        <v>16.73</v>
-      </c>
-      <c r="AD9" s="51" t="n">
-        <v>17.03</v>
-      </c>
-      <c r="AE9" s="51" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="AF9" s="51" t="n">
-        <v>18.33</v>
-      </c>
-      <c r="AG9" s="51" t="n">
-        <v>16.06</v>
-      </c>
-      <c r="AH9" s="51" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="AI9" s="50" t="n">
-        <v>14.53</v>
-      </c>
-      <c r="AJ9" s="50" t="n">
-        <v>14.35</v>
-      </c>
-      <c r="AK9" s="52" t="inlineStr">
-        <is>
-          <t>Etrade IRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1" s="66">
-      <c r="A10" s="41" t="inlineStr">
-        <is>
-          <t>ECC</t>
-        </is>
-      </c>
-      <c r="B10" s="42" t="n">
-        <v>1142</v>
-      </c>
-      <c r="C10" s="43" t="n">
-        <v>10.0969</v>
-      </c>
-      <c r="D10" s="43" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E10" s="44" t="n">
-        <v>30.36</v>
-      </c>
-      <c r="F10" s="44" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G10" s="45" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="H10" s="46">
-        <f>B10*D10</f>
-        <v/>
-      </c>
-      <c r="I10" s="47">
-        <f>B10*C10</f>
-        <v/>
-      </c>
-      <c r="J10" s="46">
-        <f>H10-I10</f>
-        <v/>
-      </c>
-      <c r="K10" s="76" t="n">
-        <v>45898.70179398148</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="M10" s="1">
-        <f>((D10*Q10)/100)/12</f>
-        <v/>
-      </c>
-      <c r="N10" s="1">
-        <f>((B10*D10)*(P10/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O10" s="1">
-        <f>(($B10*$D10)*(Q10/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P10" s="49" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="Q10" s="51" t="n">
-        <v>24.42</v>
-      </c>
-      <c r="R10" s="51" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="S10" s="51" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="T10" s="51" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="U10" s="51" t="n">
-        <v>21.65</v>
-      </c>
-      <c r="V10" s="51" t="n">
-        <v>22.31</v>
-      </c>
-      <c r="W10" s="51" t="n">
-        <v>22.31</v>
-      </c>
-      <c r="X10" s="51" t="n">
-        <v>22.16</v>
-      </c>
-      <c r="Y10" s="51" t="n">
-        <v>21.65</v>
-      </c>
-      <c r="Z10" s="51" t="n">
-        <v>21.37</v>
-      </c>
-      <c r="AA10" s="51" t="n">
-        <v>22.58</v>
-      </c>
-      <c r="AB10" s="51" t="n">
-        <v>21.03</v>
-      </c>
-      <c r="AC10" s="51" t="n">
-        <v>21.62</v>
-      </c>
-      <c r="AD10" s="51" t="n">
-        <v>21.76</v>
-      </c>
-      <c r="AE10" s="51" t="n">
-        <v>23.05</v>
-      </c>
-      <c r="AF10" s="51" t="n">
-        <v>23.08</v>
-      </c>
-      <c r="AG10" s="51" t="n">
-        <v>21.71</v>
-      </c>
-      <c r="AH10" s="51" t="n">
-        <v>20.87</v>
-      </c>
-      <c r="AI10" s="51" t="n">
-        <v>21.21</v>
-      </c>
-      <c r="AJ10" s="51" t="n">
-        <v>20.39</v>
-      </c>
-      <c r="AK10" s="52" t="inlineStr">
-        <is>
-          <t>Etrade IRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1" s="66">
-      <c r="A11" s="41" t="inlineStr">
-        <is>
-          <t>EIC</t>
-        </is>
-      </c>
-      <c r="B11" s="42" t="n">
-        <v>466</v>
-      </c>
-      <c r="C11" s="43" t="n">
-        <v>15.65</v>
-      </c>
-      <c r="D11" s="43" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="E11" s="44" t="n">
-        <v>-18.64</v>
-      </c>
-      <c r="F11" s="44" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="G11" s="45" t="n">
-        <v>-0.0025</v>
-      </c>
-      <c r="H11" s="46">
-        <f>B11*D11</f>
-        <v/>
-      </c>
-      <c r="I11" s="47">
-        <f>B11*C11</f>
-        <v/>
-      </c>
-      <c r="J11" s="46">
-        <f>H11-I11</f>
-        <v/>
-      </c>
-      <c r="K11" s="76" t="n">
-        <v>45898.70180555555</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="M11" s="1">
-        <f>((D11*Q11)/100)/12</f>
-        <v/>
-      </c>
-      <c r="N11" s="1">
-        <f>((B11*D11)*(P11/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O11" s="1">
-        <f>(($B11*$D11)*(Q11/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P11" s="49" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="Q11" s="50" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="R11" s="50" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="S11" s="50" t="n">
-        <v>11.61</v>
-      </c>
-      <c r="T11" s="50" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="U11" s="50" t="n">
-        <v>11.35</v>
-      </c>
-      <c r="V11" s="50" t="n">
-        <v>11.62</v>
-      </c>
-      <c r="W11" s="50" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="X11" s="50" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="Y11" s="50" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="Z11" s="50" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="AA11" s="51" t="n">
-        <v>16.72</v>
-      </c>
-      <c r="AB11" s="51" t="n">
-        <v>16.67</v>
-      </c>
-      <c r="AC11" s="51" t="n">
-        <v>17.13</v>
-      </c>
-      <c r="AD11" s="51" t="n">
-        <v>17.13</v>
-      </c>
-      <c r="AE11" s="51" t="n">
-        <v>17.38</v>
-      </c>
-      <c r="AF11" s="51" t="n">
-        <v>17.08</v>
-      </c>
-      <c r="AG11" s="51" t="n">
-        <v>16.18</v>
-      </c>
-      <c r="AH11" s="51" t="n">
-        <v>16.02</v>
-      </c>
-      <c r="AI11" s="51" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="AJ11" s="51" t="n">
-        <v>15.75</v>
-      </c>
-      <c r="AK11" s="52" t="inlineStr">
-        <is>
-          <t>Etrade IRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1" s="66">
-      <c r="A12" s="41" t="inlineStr">
-        <is>
-          <t>MORT</t>
-        </is>
-      </c>
-      <c r="B12" s="42" t="n">
-        <v>90</v>
-      </c>
-      <c r="C12" s="43" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="D12" s="43" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="E12" s="44" t="n">
-        <v>-18.9</v>
-      </c>
-      <c r="F12" s="44" t="n">
-        <v>-0.21</v>
-      </c>
-      <c r="G12" s="45" t="n">
-        <v>-0.0187</v>
-      </c>
-      <c r="H12" s="46">
-        <f>B12*D12</f>
-        <v/>
-      </c>
-      <c r="I12" s="47">
-        <f>B12*C12</f>
-        <v/>
-      </c>
-      <c r="J12" s="46">
-        <f>H12-I12</f>
-        <v/>
-      </c>
-      <c r="K12" s="76" t="n">
-        <v>45845.70180555555</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Quarterly</t>
-        </is>
-      </c>
-      <c r="M12" s="1">
-        <f>((D12*Q12)/100)/12</f>
-        <v/>
-      </c>
-      <c r="N12" s="1">
-        <f>((B12*D12)*(P12/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O12" s="1">
-        <f>(($B12*$D12)*(Q12/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P12" s="49" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="Q12" s="51" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="R12" s="51" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="S12" s="51" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="T12" s="51" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="U12" s="51" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="V12" s="51" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="W12" s="51" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="X12" s="51" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="Y12" s="51" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="Z12" s="51" t="n">
-        <v>13.02</v>
-      </c>
-      <c r="AA12" s="51" t="n">
-        <v>13.05</v>
-      </c>
-      <c r="AB12" s="51" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="AC12" s="51" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="AD12" s="51" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="AE12" s="51" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="AF12" s="51" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="AG12" s="51" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="AH12" s="50" t="n">
-        <v>10.41</v>
-      </c>
-      <c r="AI12" s="51" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="AJ12" s="51" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="AK12" s="52" t="inlineStr">
-        <is>
-          <t>Etrade IRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1" s="66">
-      <c r="A13" s="41" t="inlineStr">
-        <is>
-          <t>NHS</t>
-        </is>
-      </c>
-      <c r="B13" s="42" t="n">
-        <v>917</v>
-      </c>
-      <c r="C13" s="43" t="n">
-        <v>8.1136</v>
-      </c>
-      <c r="D13" s="43" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="E13" s="44" t="n">
-        <v>-82.53</v>
-      </c>
-      <c r="F13" s="44" t="n">
-        <v>-0.09</v>
-      </c>
-      <c r="G13" s="45" t="n">
-        <v>-0.0115</v>
-      </c>
-      <c r="H13" s="46">
-        <f>B13*D13</f>
-        <v/>
-      </c>
-      <c r="I13" s="47">
-        <f>B13*C13</f>
-        <v/>
-      </c>
-      <c r="J13" s="46">
-        <f>H13-I13</f>
-        <v/>
-      </c>
-      <c r="K13" s="76" t="n">
-        <v>45898.70180555555</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="M13" s="1">
-        <f>((D13*Q13)/100)/12</f>
-        <v/>
-      </c>
-      <c r="N13" s="1">
-        <f>((B13*D13)*(P13/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O13" s="1">
-        <f>(($B13*$D13)*(Q13/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P13" s="49" t="n">
-        <v>13.92</v>
-      </c>
-      <c r="Q13" s="51" t="n">
-        <v>14.67</v>
-      </c>
-      <c r="R13" s="51" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="S13" s="51" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="T13" s="51" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="U13" s="51" t="n">
-        <v>14.31</v>
-      </c>
-      <c r="V13" s="51" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="W13" s="51" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="X13" s="51" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="Y13" s="51" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="Z13" s="51" t="n">
-        <v>14.37</v>
-      </c>
-      <c r="AA13" s="51" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="AB13" s="51" t="n">
-        <v>14.38</v>
-      </c>
-      <c r="AC13" s="51" t="n">
-        <v>14.14</v>
-      </c>
-      <c r="AD13" s="51" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE13" s="51" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="AF13" s="51" t="n">
-        <v>15.34</v>
-      </c>
-      <c r="AG13" s="51" t="n">
-        <v>14.27</v>
-      </c>
-      <c r="AH13" s="51" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="AI13" s="51" t="n">
-        <v>14.12</v>
-      </c>
-      <c r="AJ13" s="51" t="n">
-        <v>14.12</v>
-      </c>
-      <c r="AK13" s="52" t="inlineStr">
-        <is>
-          <t>Etrade IRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1" s="66">
-      <c r="A14" s="41" t="inlineStr">
-        <is>
-          <t>OFS</t>
-        </is>
-      </c>
-      <c r="B14" s="42" t="n">
-        <v>1385</v>
-      </c>
-      <c r="C14" s="43" t="n">
-        <v>9.5274</v>
-      </c>
-      <c r="D14" s="43" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="E14" s="44" t="n">
-        <v>-41.55</v>
-      </c>
-      <c r="F14" s="44" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="G14" s="45" t="n">
-        <v>-0.0037</v>
-      </c>
-      <c r="H14" s="46">
-        <f>B14*D14</f>
-        <v/>
-      </c>
-      <c r="I14" s="47">
-        <f>B14*C14</f>
-        <v/>
-      </c>
-      <c r="J14" s="46">
-        <f>H14-I14</f>
-        <v/>
-      </c>
-      <c r="K14" s="76" t="n">
-        <v>45930.70180555555</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Quarterly</t>
-        </is>
-      </c>
-      <c r="M14" s="1">
-        <f>((D14*Q14)/100)/12</f>
-        <v/>
-      </c>
-      <c r="N14" s="1">
-        <f>((B14*D14)*(P14/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O14" s="1">
-        <f>(($B14*$D14)*(Q14/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P14" s="49" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="Q14" s="53" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="R14" s="53" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="S14" s="50" t="n">
-        <v>15.96</v>
-      </c>
-      <c r="T14" s="51" t="n">
-        <v>16.08</v>
-      </c>
-      <c r="U14" s="50" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="V14" s="51" t="n">
-        <v>16.08</v>
-      </c>
-      <c r="W14" s="50" t="n">
-        <v>15.53</v>
-      </c>
-      <c r="X14" s="50" t="n">
-        <v>15.23</v>
-      </c>
-      <c r="Y14" s="51" t="n">
-        <v>16.19</v>
-      </c>
-      <c r="Z14" s="51" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="AA14" s="51" t="n">
-        <v>16.41</v>
-      </c>
-      <c r="AB14" s="50" t="n">
-        <v>15.91</v>
-      </c>
-      <c r="AC14" s="50" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="AD14" s="50" t="n">
-        <v>15.93</v>
-      </c>
-      <c r="AE14" s="51" t="n">
-        <v>16.69</v>
-      </c>
-      <c r="AF14" s="51" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="AG14" s="50" t="n">
-        <v>14.99</v>
-      </c>
-      <c r="AH14" s="50" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="AI14" s="50" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="AJ14" s="50" t="n">
-        <v>14.62</v>
-      </c>
-      <c r="AK14" s="52" t="inlineStr">
-        <is>
-          <t>Etrade IRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1" s="66">
-      <c r="A15" s="41" t="inlineStr">
-        <is>
-          <t>PDI</t>
-        </is>
-      </c>
-      <c r="B15" s="42" t="n">
-        <v>688</v>
-      </c>
-      <c r="C15" s="43" t="n">
-        <v>19.1513</v>
-      </c>
-      <c r="D15" s="43" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="E15" s="44" t="n">
-        <v>6.88</v>
-      </c>
-      <c r="F15" s="44" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G15" s="45" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="H15" s="46">
-        <f>B15*D15</f>
-        <v/>
-      </c>
-      <c r="I15" s="47">
-        <f>B15*C15</f>
-        <v/>
-      </c>
-      <c r="J15" s="46">
-        <f>H15-I15</f>
-        <v/>
-      </c>
-      <c r="K15" s="76" t="n">
-        <v>45870.70180555555</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="M15" s="1">
-        <f>((D15*Q15)/100)/12</f>
-        <v/>
-      </c>
-      <c r="N15" s="1">
-        <f>((B15*D15)*(P15/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O15" s="1">
-        <f>(($B15*$D15)*(Q15/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P15" s="49" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="Q15" s="50" t="n">
-        <v>13.78</v>
-      </c>
-      <c r="R15" s="50" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="S15" s="50" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="T15" s="50" t="n">
-        <v>13.93</v>
-      </c>
-      <c r="U15" s="50" t="n">
-        <v>13.89</v>
-      </c>
-      <c r="V15" s="50" t="n">
-        <v>14.05</v>
-      </c>
-      <c r="W15" s="50" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="X15" s="50" t="n">
-        <v>14.07</v>
-      </c>
-      <c r="Y15" s="50" t="n">
-        <v>14.03</v>
-      </c>
-      <c r="Z15" s="50" t="n">
-        <v>14.07</v>
-      </c>
-      <c r="AA15" s="50" t="n">
-        <v>14.41</v>
-      </c>
-      <c r="AB15" s="50" t="n">
-        <v>13.98</v>
-      </c>
-      <c r="AC15" s="50" t="n">
-        <v>14.21</v>
-      </c>
-      <c r="AD15" s="50" t="n">
-        <v>14.44</v>
-      </c>
-      <c r="AE15" s="50" t="n">
-        <v>14.93</v>
-      </c>
-      <c r="AF15" s="50" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="AG15" s="50" t="n">
-        <v>13.42</v>
-      </c>
-      <c r="AH15" s="51" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="AI15" s="51" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="AJ15" s="51" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="AK15" s="52" t="inlineStr">
-        <is>
-          <t>Etrade IRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1" s="66">
-      <c r="A16" s="41" t="inlineStr">
-        <is>
-          <t>QDTE</t>
-        </is>
-      </c>
-      <c r="B16" s="42" t="n">
-        <v>276</v>
-      </c>
-      <c r="C16" s="43" t="n">
-        <v>38.83</v>
-      </c>
-      <c r="D16" s="43" t="n">
-        <v>34.62</v>
-      </c>
-      <c r="E16" s="44" t="n">
-        <v>-72.23999999999999</v>
-      </c>
-      <c r="F16" s="44" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="G16" s="45" t="n">
-        <v>-0.0107</v>
-      </c>
-      <c r="H16" s="46">
-        <f>B16*D16</f>
-        <v/>
-      </c>
-      <c r="I16" s="47">
-        <f>B16*C16</f>
-        <v/>
-      </c>
-      <c r="J16" s="46">
-        <f>H16-I16</f>
-        <v/>
-      </c>
-      <c r="K16" s="76" t="n">
-        <v>45870.70180555555</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Weekly</t>
-        </is>
-      </c>
-      <c r="M16" s="1">
-        <f>((D16*Q16)/100)/12</f>
-        <v/>
-      </c>
-      <c r="N16" s="1">
-        <f>((B16*D16)*(P16/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O16" s="1">
-        <f>(($B16*$D16)*(Q16/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P16" s="54" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="Q16" s="50" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="R16" s="50" t="n">
-        <v>8</v>
-      </c>
-      <c r="S16" s="51" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="T16" s="51" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="U16" s="51" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="V16" s="51" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="W16" s="51" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="X16" s="50" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="Y16" s="51" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="Z16" s="51" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="AA16" s="50" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="AB16" s="51" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="AC16" s="51" t="n">
-        <v>8.17</v>
-      </c>
-      <c r="AD16" s="51" t="n">
-        <v>9.17</v>
-      </c>
-      <c r="AE16" s="51" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="AF16" s="51" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="AG16" s="51" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="AH16" s="55" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="AI16" s="55" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="AJ16" s="55" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AK16" s="52" t="inlineStr">
-        <is>
-          <t>Etrade IRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1" s="66">
-      <c r="A17" s="41" t="inlineStr">
-        <is>
-          <t>QYLD</t>
-        </is>
-      </c>
-      <c r="B17" s="42" t="n">
-        <v>350</v>
-      </c>
-      <c r="C17" s="43" t="n">
-        <v>17.92</v>
-      </c>
-      <c r="D17" s="43" t="n">
-        <v>16.58</v>
-      </c>
-      <c r="E17" s="44" t="n">
-        <v>-24.5</v>
-      </c>
-      <c r="F17" s="44" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="G17" s="45" t="n">
-        <v>-0.0038</v>
-      </c>
-      <c r="H17" s="46">
-        <f>B17*D17</f>
-        <v/>
-      </c>
-      <c r="I17" s="47">
-        <f>B17*C17</f>
-        <v/>
-      </c>
-      <c r="J17" s="46">
-        <f>H17-I17</f>
-        <v/>
-      </c>
-      <c r="K17" s="76" t="n">
-        <v>45866.70180555555</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="M17" s="1">
-        <f>((D17*Q17)/100)/12</f>
-        <v/>
-      </c>
-      <c r="N17" s="1">
-        <f>((B17*D17)*(P17/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O17" s="1">
-        <f>(($B17*$D17)*(Q17/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P17" s="49" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="Q17" s="51" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="R17" s="51" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="S17" s="51" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="T17" s="51" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="U17" s="51" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="V17" s="51" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="W17" s="51" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="X17" s="51" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="Y17" s="51" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="Z17" s="51" t="n">
-        <v>12.72</v>
-      </c>
-      <c r="AA17" s="51" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="AB17" s="51" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="AC17" s="51" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="AD17" s="51" t="n">
-        <v>12.91</v>
-      </c>
-      <c r="AE17" s="51" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="AF17" s="51" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="AG17" s="51" t="n">
-        <v>13.02</v>
-      </c>
-      <c r="AH17" s="51" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="AI17" s="51" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="AJ17" s="51" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="AK17" s="52" t="inlineStr">
-        <is>
-          <t>Etrade IRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1" s="66">
-      <c r="A18" s="41" t="inlineStr">
-        <is>
-          <t>RYLD</t>
-        </is>
-      </c>
-      <c r="B18" s="42" t="n">
-        <v>579</v>
-      </c>
-      <c r="C18" s="43" t="n">
-        <v>16.5407</v>
-      </c>
-      <c r="D18" s="43" t="n">
-        <v>14.46</v>
-      </c>
-      <c r="E18" s="44" t="n">
-        <v>-28.95</v>
-      </c>
-      <c r="F18" s="44" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="G18" s="45" t="n">
-        <v>-0.003</v>
-      </c>
-      <c r="H18" s="46">
-        <f>B18*D18</f>
-        <v/>
-      </c>
-      <c r="I18" s="47">
-        <f>B18*C18</f>
-        <v/>
-      </c>
-      <c r="J18" s="46">
-        <f>H18-I18</f>
-        <v/>
-      </c>
-      <c r="K18" s="76" t="n">
-        <v>45866.70180555555</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="M18" s="1">
-        <f>((D18*Q18)/100)/12</f>
-        <v/>
-      </c>
-      <c r="N18" s="1">
-        <f>((B18*D18)*(P18/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O18" s="1">
-        <f>(($B18*$D18)*(Q18/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P18" s="49" t="n">
-        <v>11.87</v>
-      </c>
-      <c r="Q18" s="51" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="R18" s="51" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="S18" s="51" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="T18" s="51" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="U18" s="51" t="n">
-        <v>12.74</v>
-      </c>
-      <c r="V18" s="51" t="n">
-        <v>12.81</v>
-      </c>
-      <c r="W18" s="51" t="n">
-        <v>12.89</v>
-      </c>
-      <c r="X18" s="51" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="Y18" s="51" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="Z18" s="51" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="AA18" s="51" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="AB18" s="51" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="AC18" s="51" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="AD18" s="51" t="n">
-        <v>13.36</v>
-      </c>
-      <c r="AE18" s="51" t="n">
-        <v>13.79</v>
-      </c>
-      <c r="AF18" s="51" t="n">
-        <v>14.02</v>
-      </c>
-      <c r="AG18" s="51" t="n">
-        <v>13.48</v>
-      </c>
-      <c r="AH18" s="51" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="AI18" s="51" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="AJ18" s="51" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="AK18" s="52" t="inlineStr">
-        <is>
-          <t>Etrade IRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1" s="66">
-      <c r="A19" s="41" t="inlineStr">
-        <is>
-          <t>SVOL</t>
-        </is>
-      </c>
-      <c r="B19" s="42" t="n">
-        <v>552</v>
-      </c>
-      <c r="C19" s="43" t="n">
-        <v>22.3288</v>
-      </c>
-      <c r="D19" s="43" t="n">
-        <v>16.48</v>
-      </c>
-      <c r="E19" s="44" t="n">
-        <v>-143.52</v>
-      </c>
-      <c r="F19" s="44" t="n">
-        <v>-0.26</v>
-      </c>
-      <c r="G19" s="45" t="n">
-        <v>-0.0121</v>
-      </c>
-      <c r="H19" s="46">
-        <f>B19*D19</f>
-        <v/>
-      </c>
-      <c r="I19" s="47">
-        <f>B19*C19</f>
-        <v/>
-      </c>
-      <c r="J19" s="46">
-        <f>H19-I19</f>
-        <v/>
-      </c>
-      <c r="K19" s="76" t="n">
-        <v>45869.70180555555</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="M19" s="1">
-        <f>((D19*Q19)/100)/12</f>
-        <v/>
-      </c>
-      <c r="N19" s="1">
-        <f>((B19*D19)*(P19/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O19" s="1">
-        <f>(($B19*$D19)*(Q19/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P19" s="49" t="n">
-        <v>16.29</v>
-      </c>
-      <c r="Q19" s="51" t="n">
-        <v>20.01</v>
-      </c>
-      <c r="R19" s="51" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="S19" s="51" t="n">
-        <v>19.37</v>
-      </c>
-      <c r="T19" s="51" t="n">
-        <v>18.52</v>
-      </c>
-      <c r="U19" s="51" t="n">
-        <v>18.35</v>
-      </c>
-      <c r="V19" s="51" t="n">
-        <v>19.19</v>
-      </c>
-      <c r="W19" s="51" t="n">
-        <v>20</v>
-      </c>
-      <c r="X19" s="51" t="n">
-        <v>18.94</v>
-      </c>
-      <c r="Y19" s="51" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="Z19" s="51" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="AA19" s="51" t="n">
-        <v>18.56</v>
-      </c>
-      <c r="AB19" s="51" t="n">
-        <v>20.56</v>
-      </c>
-      <c r="AC19" s="51" t="n">
-        <v>20.31</v>
-      </c>
-      <c r="AD19" s="51" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="AE19" s="51" t="n">
-        <v>21.94</v>
-      </c>
-      <c r="AF19" s="51" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="AG19" s="51" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="AH19" s="51" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="AI19" s="51" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="AJ19" s="51" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="AK19" s="52" t="inlineStr">
-        <is>
-          <t>Etrade IRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1" s="66">
-      <c r="A20" s="41" t="inlineStr">
-        <is>
-          <t>DX</t>
-        </is>
-      </c>
-      <c r="B20" s="42" t="n">
-        <v>125</v>
-      </c>
-      <c r="C20" s="43" t="n">
-        <v>11.91</v>
-      </c>
-      <c r="D20" s="43" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="E20" s="43" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="F20" s="44" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="G20" s="45" t="n">
-        <v>0.0525</v>
-      </c>
-      <c r="H20" s="46">
-        <f>B20*D20</f>
-        <v/>
-      </c>
-      <c r="I20" s="47">
-        <f>B20*C20</f>
-        <v/>
-      </c>
-      <c r="J20" s="46">
-        <f>H20-I20</f>
-        <v/>
-      </c>
-      <c r="K20" s="76" t="n">
-        <v>45870.70181712963</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="M20" s="1" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="N20" s="1">
-        <f>((B20*D20)*(P20/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O20" s="1">
-        <f>(($B20*$D20)*(Q20/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P20" s="49" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="Q20" s="51" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="R20" s="51" t="n">
-        <v>16</v>
-      </c>
-      <c r="S20" s="51" t="n">
-        <v>16.22</v>
-      </c>
-      <c r="T20" s="49" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="U20" s="49" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="V20" s="49" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="W20" s="49" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="X20" s="49" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="Y20" s="49" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="Z20" s="49" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="AA20" s="49" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="AB20" s="49" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="AC20" s="49" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="AD20" s="49" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="AE20" s="49" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="AF20" s="49" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="AG20" s="49" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="AH20" s="49" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="AI20" s="49" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="AJ20" s="49" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="AK20" s="52" t="inlineStr">
-        <is>
-          <t>Schwab individual</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1" s="66">
-      <c r="A21" s="41" t="inlineStr">
-        <is>
-          <t>AGNC</t>
-        </is>
-      </c>
-      <c r="B21" s="42" t="n">
-        <v>1060</v>
-      </c>
-      <c r="C21" s="43" t="n">
-        <v>9.42</v>
-      </c>
-      <c r="D21" s="49" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="E21" s="43" t="n">
-        <v>-180.2</v>
-      </c>
-      <c r="F21" s="44" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="G21" s="45" t="n">
-        <v>-0.018</v>
-      </c>
-      <c r="H21" s="46">
-        <f>B21*D21</f>
-        <v/>
-      </c>
-      <c r="I21" s="47">
-        <f>B21*C21</f>
-        <v/>
-      </c>
-      <c r="J21" s="46">
-        <f>H21-I21</f>
-        <v/>
-      </c>
-      <c r="K21" s="76" t="n">
-        <v>45880.70181712963</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="M21" s="56" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N21" s="1">
-        <f>((B21*D21)*(P21/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O21" s="1">
-        <f>(($B21*$D21)*(Q21/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P21" s="57" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="Q21" s="50" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="R21" s="50" t="n">
-        <v>14.83</v>
-      </c>
-      <c r="S21" s="51" t="n">
-        <v>15.52</v>
-      </c>
-      <c r="T21" s="50" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="U21" s="57" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="V21" s="57" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="W21" s="57" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="X21" s="57" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="Y21" s="57" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="Z21" s="57" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="AA21" s="57" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="AB21" s="57" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="AC21" s="57" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="AD21" s="57" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="AE21" s="57" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="AF21" s="57" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="AG21" s="57" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="AH21" s="57" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="AI21" s="57" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="AJ21" s="57" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Schwab IRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1" s="66">
-      <c r="A22" s="41" t="inlineStr">
-        <is>
-          <t>QDTE</t>
-        </is>
-      </c>
-      <c r="B22" s="42" t="n">
-        <v>285</v>
-      </c>
-      <c r="C22" s="43" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="D22" s="49" t="n">
-        <v>34.62</v>
-      </c>
-      <c r="E22" s="43" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="F22" s="44" t="n">
-        <v>-0.02</v>
-      </c>
-      <c r="G22" s="45" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="H22" s="46">
-        <f>B22*D22</f>
-        <v/>
-      </c>
-      <c r="I22" s="47">
-        <f>B22*C22</f>
-        <v/>
-      </c>
-      <c r="J22" s="46">
-        <f>H22-I22</f>
-        <v/>
-      </c>
-      <c r="K22" s="77" t="n">
-        <v>45870.70181712963</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>Weekly</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="N22" s="1">
-        <f>((B22*D22)*(P22/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O22" s="1">
-        <f>(($B22*$D22)*(Q22/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P22" s="59" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="Q22" s="50" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="R22" s="50" t="n">
-        <v>8</v>
-      </c>
-      <c r="S22" s="51" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="T22" s="59" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="U22" s="59" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="V22" s="59" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="W22" s="59" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="X22" s="59" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="Y22" s="59" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="Z22" s="59" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="AA22" s="59" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="AB22" s="59" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="AC22" s="59" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="AD22" s="59" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="AE22" s="59" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="AF22" s="59" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="AG22" s="59" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="AH22" s="59" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="AI22" s="59" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="AJ22" s="59" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="AK22" t="inlineStr">
-        <is>
-          <t>Schwab IRA</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1" s="66">
-      <c r="A23" s="41" t="inlineStr">
-        <is>
-          <t>ECC</t>
-        </is>
-      </c>
-      <c r="B23" s="42" t="n">
-        <v>1330</v>
-      </c>
-      <c r="C23" s="43" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="D23" s="49" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E23" t="n">
-        <v>33.25</v>
-      </c>
-      <c r="F23" s="44" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="G23" s="45" t="n">
-        <v>0.0068</v>
-      </c>
-      <c r="H23" s="46">
-        <f>B23*D23</f>
-        <v/>
-      </c>
-      <c r="I23" s="47">
-        <f>B23*C23</f>
-        <v/>
-      </c>
-      <c r="J23" s="46">
-        <f>H23-I23</f>
-        <v/>
-      </c>
-      <c r="K23" s="77" t="n">
-        <v>45898.70181712963</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Monthly</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N23" s="1">
-        <f>((B23*D23)*(P23/100)/12)</f>
-        <v/>
-      </c>
-      <c r="O23" s="1">
-        <f>(($B23*$D23)*(Q23/100)/12)</f>
-        <v/>
-      </c>
-      <c r="P23" s="59" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="Q23" s="51" t="n">
-        <v>24.42</v>
-      </c>
-      <c r="R23" s="51" t="n">
-        <v>24.31</v>
-      </c>
-      <c r="S23" s="51" t="n">
-        <v>22.67</v>
-      </c>
-      <c r="T23" s="59" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="U23" s="59" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="V23" s="59" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="W23" s="59" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="X23" s="59" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="Y23" s="59" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="Z23" s="59" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="AA23" s="59" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="AB23" s="59" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="AC23" s="59" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="AD23" s="59" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="AE23" s="59" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="AF23" s="59" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="AG23" s="59" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="AH23" s="59" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="AI23" s="59" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="AJ23" s="59" t="n">
-        <v>21.93</v>
-      </c>
-      <c r="AK23" t="inlineStr">
-        <is>
-          <t>Schwab IRA</t>
-        </is>
-      </c>
+    <row r="25">
+      <c r="P25" s="59" t="n"/>
+      <c r="Q25" s="59" t="n"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:H23">
-    <cfRule type="expression" priority="5" dxfId="2">
-      <formula>$H2 &lt; $I2</formula>
+  <conditionalFormatting sqref="N2:N23">
+    <cfRule type="expression" priority="13" dxfId="21">
+      <formula>N2&lt;M2</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" dxfId="4">
-      <formula>$H2 &gt; $I2</formula>
+    <cfRule type="expression" priority="14" dxfId="20">
+      <formula>N2&gt;M2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J23">
+  <conditionalFormatting sqref="I2:I23">
     <cfRule type="expression" priority="3" dxfId="3">
-      <formula>$J2 &gt; 0</formula>
+      <formula>$I2 &gt; 0</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" dxfId="2">
-      <formula>$J2 &lt; 0</formula>
+    <cfRule type="expression" priority="4" dxfId="1">
+      <formula>$I2 &lt; 0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2:O23">
+  <conditionalFormatting sqref="G2:G23">
     <cfRule type="expression" priority="1" dxfId="1">
-      <formula>O2&lt;N2</formula>
+      <formula>$G2 &lt; $H2</formula>
     </cfRule>
     <cfRule type="expression" priority="2" dxfId="0">
-      <formula>O2&gt;N2</formula>
+      <formula>$G2 &gt; $H2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6460,131 +6745,131 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" style="66" min="1" max="1"/>
-    <col width="15" customWidth="1" style="66" min="2" max="2"/>
-    <col width="15" customWidth="1" style="66" min="3" max="3"/>
-    <col width="15" customWidth="1" style="66" min="4" max="4"/>
-    <col width="15" customWidth="1" style="66" min="5" max="5"/>
-    <col width="15" customWidth="1" style="66" min="6" max="6"/>
-    <col width="15" customWidth="1" style="66" min="7" max="7"/>
-    <col width="15" customWidth="1" style="66" min="8" max="8"/>
-    <col width="15" customWidth="1" style="66" min="9" max="9"/>
-    <col width="15" customWidth="1" style="66" min="10" max="10"/>
-    <col width="15" customWidth="1" style="66" min="11" max="11"/>
-    <col width="15" customWidth="1" style="66" min="12" max="12"/>
-    <col width="15" customWidth="1" style="66" min="13" max="13"/>
-    <col width="15" customWidth="1" style="66" min="14" max="14"/>
-    <col width="15" customWidth="1" style="66" min="15" max="15"/>
-    <col width="15" customWidth="1" style="66" min="16" max="16"/>
-    <col width="15" customWidth="1" style="66" min="17" max="17"/>
-    <col width="15" customWidth="1" style="66" min="18" max="18"/>
-    <col width="15" customWidth="1" style="66" min="19" max="19"/>
-    <col width="15" customWidth="1" style="66" min="20" max="20"/>
-    <col width="15" customWidth="1" style="66" min="21" max="21"/>
+    <col width="15" customWidth="1" style="67" min="1" max="1"/>
+    <col width="15" customWidth="1" style="67" min="2" max="2"/>
+    <col width="15" customWidth="1" style="67" min="3" max="3"/>
+    <col width="15" customWidth="1" style="67" min="4" max="4"/>
+    <col width="15" customWidth="1" style="67" min="5" max="5"/>
+    <col width="15" customWidth="1" style="67" min="6" max="6"/>
+    <col width="15" customWidth="1" style="67" min="7" max="7"/>
+    <col width="15" customWidth="1" style="67" min="8" max="8"/>
+    <col width="15" customWidth="1" style="67" min="9" max="9"/>
+    <col width="15" customWidth="1" style="67" min="10" max="10"/>
+    <col width="15" customWidth="1" style="67" min="11" max="11"/>
+    <col width="15" customWidth="1" style="67" min="12" max="12"/>
+    <col width="15" customWidth="1" style="67" min="13" max="13"/>
+    <col width="15" customWidth="1" style="67" min="14" max="14"/>
+    <col width="15" customWidth="1" style="67" min="15" max="15"/>
+    <col width="15" customWidth="1" style="67" min="16" max="16"/>
+    <col width="15" customWidth="1" style="67" min="17" max="17"/>
+    <col width="15" customWidth="1" style="67" min="18" max="18"/>
+    <col width="15" customWidth="1" style="67" min="19" max="19"/>
+    <col width="15" customWidth="1" style="67" min="20" max="20"/>
+    <col width="15" customWidth="1" style="67" min="21" max="21"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="78" t="inlineStr">
+      <c r="A1" s="79" t="inlineStr">
         <is>
           <t>Ticker</t>
         </is>
       </c>
-      <c r="B1" s="78" t="inlineStr">
+      <c r="B1" s="79" t="inlineStr">
         <is>
           <t>Account</t>
         </is>
       </c>
-      <c r="C1" s="78" t="inlineStr">
+      <c r="C1" s="79" t="inlineStr">
         <is>
           <t>Qty #</t>
         </is>
       </c>
-      <c r="D1" s="78" t="inlineStr">
+      <c r="D1" s="79" t="inlineStr">
         <is>
           <t>Price Paid $</t>
         </is>
       </c>
-      <c r="E1" s="78" t="inlineStr">
+      <c r="E1" s="79" t="inlineStr">
         <is>
           <t>Current Price $</t>
         </is>
       </c>
-      <c r="F1" s="78" t="inlineStr">
+      <c r="F1" s="79" t="inlineStr">
         <is>
           <t>Day Change $</t>
         </is>
       </c>
-      <c r="G1" s="78" t="inlineStr">
+      <c r="G1" s="79" t="inlineStr">
         <is>
           <t>Price Change $</t>
         </is>
       </c>
-      <c r="H1" s="78" t="inlineStr">
+      <c r="H1" s="79" t="inlineStr">
         <is>
           <t>Change %</t>
         </is>
       </c>
-      <c r="I1" s="78" t="inlineStr">
+      <c r="I1" s="79" t="inlineStr">
         <is>
           <t>Current Value $</t>
         </is>
       </c>
-      <c r="J1" s="78" t="inlineStr">
+      <c r="J1" s="79" t="inlineStr">
         <is>
           <t>Original Value $</t>
         </is>
       </c>
-      <c r="K1" s="78" t="inlineStr">
+      <c r="K1" s="79" t="inlineStr">
         <is>
           <t>Total Gain $</t>
         </is>
       </c>
-      <c r="L1" s="78" t="inlineStr">
+      <c r="L1" s="79" t="inlineStr">
         <is>
           <t>Total Gain %</t>
         </is>
       </c>
-      <c r="M1" s="78" t="inlineStr">
+      <c r="M1" s="79" t="inlineStr">
         <is>
           <t>Payment Cycle</t>
         </is>
       </c>
-      <c r="N1" s="78" t="inlineStr">
+      <c r="N1" s="79" t="inlineStr">
         <is>
           <t>Dividend/Share</t>
         </is>
       </c>
-      <c r="O1" s="78" t="inlineStr">
+      <c r="O1" s="79" t="inlineStr">
         <is>
           <t>Monthly Dividend $</t>
         </is>
       </c>
-      <c r="P1" s="78" t="inlineStr">
+      <c r="P1" s="79" t="inlineStr">
         <is>
           <t>Annual Dividend $</t>
         </is>
       </c>
-      <c r="Q1" s="78" t="inlineStr">
+      <c r="Q1" s="79" t="inlineStr">
         <is>
           <t>Current Yield %</t>
         </is>
       </c>
-      <c r="R1" s="78" t="inlineStr">
+      <c r="R1" s="79" t="inlineStr">
         <is>
           <t>Previous Yield %</t>
         </is>
       </c>
-      <c r="S1" s="78" t="inlineStr">
+      <c r="S1" s="79" t="inlineStr">
         <is>
           <t>Yield Change %</t>
         </is>
       </c>
-      <c r="T1" s="78" t="inlineStr">
+      <c r="T1" s="79" t="inlineStr">
         <is>
           <t>Yield Status</t>
         </is>
       </c>
-      <c r="U1" s="78" t="inlineStr">
+      <c r="U1" s="79" t="inlineStr">
         <is>
           <t>Last Updated</t>
         </is>
@@ -6654,14 +6939,14 @@
       <c r="S2" s="28" t="n">
         <v>0.2924000000000007</v>
       </c>
-      <c r="T2" s="79" t="inlineStr">
+      <c r="T2" s="80" t="inlineStr">
         <is>
           <t>Increased</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -6729,14 +7014,14 @@
       <c r="S3" s="28" t="n">
         <v>0.2840000000000007</v>
       </c>
-      <c r="T3" s="79" t="inlineStr">
+      <c r="T3" s="80" t="inlineStr">
         <is>
           <t>Increased</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -6804,14 +7089,14 @@
       <c r="S4" s="28" t="n">
         <v>0.3106000000000009</v>
       </c>
-      <c r="T4" s="79" t="inlineStr">
+      <c r="T4" s="80" t="inlineStr">
         <is>
           <t>Increased</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -6879,14 +7164,14 @@
       <c r="S5" s="28" t="n">
         <v>0.2762000000000011</v>
       </c>
-      <c r="T5" s="79" t="inlineStr">
+      <c r="T5" s="80" t="inlineStr">
         <is>
           <t>Increased</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -6954,14 +7239,14 @@
       <c r="S6" s="28" t="n">
         <v>0.2762000000000011</v>
       </c>
-      <c r="T6" s="79" t="inlineStr">
+      <c r="T6" s="80" t="inlineStr">
         <is>
           <t>Increased</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -7029,14 +7314,14 @@
       <c r="S7" s="28" t="n">
         <v>1.141400000000004</v>
       </c>
-      <c r="T7" s="79" t="inlineStr">
+      <c r="T7" s="80" t="inlineStr">
         <is>
           <t>Increased</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -7104,14 +7389,14 @@
       <c r="S8" s="28" t="n">
         <v>0.2062000000000008</v>
       </c>
-      <c r="T8" s="79" t="inlineStr">
+      <c r="T8" s="80" t="inlineStr">
         <is>
           <t>Increased</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -7179,14 +7464,14 @@
       <c r="S9" s="28" t="n">
         <v>0.3399999999999999</v>
       </c>
-      <c r="T9" s="79" t="inlineStr">
+      <c r="T9" s="80" t="inlineStr">
         <is>
           <t>Increased</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -7254,14 +7539,14 @@
       <c r="S10" s="28" t="n">
         <v>0.2550000000000008</v>
       </c>
-      <c r="T10" s="79" t="inlineStr">
+      <c r="T10" s="80" t="inlineStr">
         <is>
           <t>Increased</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -7329,14 +7614,14 @@
       <c r="S11" s="28" t="n">
         <v>0.2924000000000007</v>
       </c>
-      <c r="T11" s="79" t="inlineStr">
+      <c r="T11" s="80" t="inlineStr">
         <is>
           <t>Increased</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -7404,14 +7689,14 @@
       <c r="S12" s="28" t="n">
         <v>0.3870000000000005</v>
       </c>
-      <c r="T12" s="79" t="inlineStr">
+      <c r="T12" s="80" t="inlineStr">
         <is>
           <t>Increased</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -7479,14 +7764,14 @@
       <c r="S13" s="28" t="n">
         <v>0.3870000000000005</v>
       </c>
-      <c r="T13" s="79" t="inlineStr">
+      <c r="T13" s="80" t="inlineStr">
         <is>
           <t>Increased</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -7554,14 +7839,14 @@
       <c r="S14" s="28" t="n">
         <v>0.3046000000000006</v>
       </c>
-      <c r="T14" s="79" t="inlineStr">
+      <c r="T14" s="80" t="inlineStr">
         <is>
           <t>Increased</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -7629,14 +7914,14 @@
       <c r="S15" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="T15" s="80" t="inlineStr">
+      <c r="T15" s="81" t="inlineStr">
         <is>
           <t>Stable</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -7704,14 +7989,14 @@
       <c r="S16" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="T16" s="80" t="inlineStr">
+      <c r="T16" s="81" t="inlineStr">
         <is>
           <t>Stable</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -7779,14 +8064,14 @@
       <c r="S17" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="T17" s="80" t="inlineStr">
+      <c r="T17" s="81" t="inlineStr">
         <is>
           <t>Stable</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -7854,14 +8139,14 @@
       <c r="S18" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="T18" s="80" t="inlineStr">
+      <c r="T18" s="81" t="inlineStr">
         <is>
           <t>Stable</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -7929,14 +8214,14 @@
       <c r="S19" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="T19" s="80" t="inlineStr">
+      <c r="T19" s="81" t="inlineStr">
         <is>
           <t>Stable</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -8004,14 +8289,14 @@
       <c r="S20" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="T20" s="80" t="inlineStr">
+      <c r="T20" s="81" t="inlineStr">
         <is>
           <t>Stable</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -8079,14 +8364,14 @@
       <c r="S21" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="T21" s="80" t="inlineStr">
+      <c r="T21" s="81" t="inlineStr">
         <is>
           <t>Stable</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -8154,14 +8439,14 @@
       <c r="S22" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="T22" s="80" t="inlineStr">
+      <c r="T22" s="81" t="inlineStr">
         <is>
           <t>Stable</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
@@ -8229,41 +8514,41 @@
       <c r="S23" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="T23" s="80" t="inlineStr">
+      <c r="T23" s="81" t="inlineStr">
         <is>
           <t>Stable</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>08/09/2025 15:49</t>
+          <t>08/16/2025 08:34</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="81" t="inlineStr">
+      <c r="A25" s="82" t="inlineStr">
         <is>
           <t>TOTALS</t>
         </is>
       </c>
-      <c r="I25" s="82" t="n">
+      <c r="I25" s="83" t="n">
         <v>178219.2275</v>
       </c>
-      <c r="J25" s="82" t="n">
+      <c r="J25" s="83" t="n">
         <v>191446.2883</v>
       </c>
-      <c r="K25" s="82" t="n">
+      <c r="K25" s="83" t="n">
         <v>-13227.0608</v>
       </c>
-      <c r="O25" s="82" t="n">
+      <c r="O25" s="83" t="n">
         <v>1397.963333333333</v>
       </c>
-      <c r="P25" s="82" t="n">
+      <c r="P25" s="83" t="n">
         <v>16775.56</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="81" t="inlineStr">
+      <c r="A28" s="82" t="inlineStr">
         <is>
           <t>Yield Tracking:</t>
         </is>
